--- a/word_features/年/CHA,2021-1~2021-12,主题_词矩阵.xlsx
+++ b/word_features/年/CHA,2021-1~2021-12,主题_词矩阵.xlsx
@@ -14,11 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>一剂</t>
+  </si>
   <si>
     <t>一带</t>
   </si>
   <si>
+    <t>一针</t>
+  </si>
+  <si>
+    <t>万剂</t>
+  </si>
+  <si>
+    <t>不确定性</t>
+  </si>
+  <si>
     <t>世卫</t>
   </si>
   <si>
@@ -28,10 +40,16 @@
     <t>世纪</t>
   </si>
   <si>
-    <t>中央</t>
-  </si>
-  <si>
-    <t>中心</t>
+    <t>东欧国家</t>
+  </si>
+  <si>
+    <t>东盟国家</t>
+  </si>
+  <si>
+    <t>两剂</t>
+  </si>
+  <si>
+    <t>两国人民</t>
   </si>
   <si>
     <t>临床试验</t>
@@ -43,12 +61,24 @@
     <t>主席</t>
   </si>
   <si>
+    <t>主席国</t>
+  </si>
+  <si>
+    <t>主张</t>
+  </si>
+  <si>
     <t>主旨</t>
   </si>
   <si>
+    <t>主权</t>
+  </si>
+  <si>
     <t>事业</t>
   </si>
   <si>
+    <t>事务</t>
+  </si>
+  <si>
     <t>互利</t>
   </si>
   <si>
@@ -58,75 +88,111 @@
     <t>交流</t>
   </si>
   <si>
+    <t>交织</t>
+  </si>
+  <si>
     <t>产业</t>
   </si>
   <si>
     <t>产业链</t>
   </si>
   <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>人才</t>
+    <t>产生</t>
+  </si>
+  <si>
+    <t>人体</t>
+  </si>
+  <si>
+    <t>人口比例</t>
+  </si>
+  <si>
+    <t>人员</t>
   </si>
   <si>
     <t>人文</t>
   </si>
   <si>
+    <t>人民</t>
+  </si>
+  <si>
     <t>人类</t>
   </si>
   <si>
     <t>人群</t>
   </si>
   <si>
-    <t>代表</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>企业</t>
-  </si>
-  <si>
     <t>优势</t>
   </si>
   <si>
+    <t>伙伴</t>
+  </si>
+  <si>
     <t>伙伴关系</t>
   </si>
   <si>
     <t>会议</t>
   </si>
   <si>
+    <t>伟大成就</t>
+  </si>
+  <si>
+    <t>传染性</t>
+  </si>
+  <si>
+    <t>住院</t>
+  </si>
+  <si>
     <t>体制</t>
   </si>
   <si>
     <t>体系</t>
   </si>
   <si>
+    <t>作出贡献</t>
+  </si>
+  <si>
     <t>供应链</t>
   </si>
   <si>
+    <t>供苗</t>
+  </si>
+  <si>
     <t>保护主义</t>
   </si>
   <si>
+    <t>保护期</t>
+  </si>
+  <si>
     <t>保护率</t>
   </si>
   <si>
+    <t>信号</t>
+  </si>
+  <si>
     <t>信心</t>
   </si>
   <si>
     <t>倡议</t>
   </si>
   <si>
+    <t>债务</t>
+  </si>
+  <si>
     <t>儿童</t>
   </si>
   <si>
     <t>免疫力</t>
   </si>
   <si>
+    <t>党员</t>
+  </si>
+  <si>
     <t>全人类</t>
   </si>
   <si>
+    <t>全员</t>
+  </si>
+  <si>
     <t>全球</t>
   </si>
   <si>
@@ -136,21 +202,36 @@
     <t>全球性</t>
   </si>
   <si>
-    <t>公司</t>
+    <t>全面</t>
+  </si>
+  <si>
+    <t>公众</t>
   </si>
   <si>
     <t>公平</t>
   </si>
   <si>
+    <t>公平合理</t>
+  </si>
+  <si>
     <t>公平正义</t>
   </si>
   <si>
+    <t>公约</t>
+  </si>
+  <si>
     <t>共克</t>
   </si>
   <si>
+    <t>共创</t>
+  </si>
+  <si>
     <t>共同体</t>
   </si>
   <si>
+    <t>共同利益</t>
+  </si>
+  <si>
     <t>共商</t>
   </si>
   <si>
@@ -160,10 +241,28 @@
     <t>共识</t>
   </si>
   <si>
+    <t>共谋</t>
+  </si>
+  <si>
     <t>关系</t>
   </si>
   <si>
-    <t>关键</t>
+    <t>典范</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>内涵</t>
+  </si>
+  <si>
+    <t>内需</t>
+  </si>
+  <si>
+    <t>分歧</t>
+  </si>
+  <si>
+    <t>刚方</t>
   </si>
   <si>
     <t>利益</t>
@@ -172,52 +271,91 @@
     <t>制度</t>
   </si>
   <si>
+    <t>制药</t>
+  </si>
+  <si>
     <t>制造业</t>
   </si>
   <si>
+    <t>剂次</t>
+  </si>
+  <si>
+    <t>剂量</t>
+  </si>
+  <si>
+    <t>前景</t>
+  </si>
+  <si>
     <t>前途</t>
   </si>
   <si>
-    <t>力量</t>
-  </si>
-  <si>
     <t>动力</t>
   </si>
   <si>
     <t>动能</t>
   </si>
   <si>
-    <t>助力</t>
-  </si>
-  <si>
-    <t>区域</t>
+    <t>包容性</t>
   </si>
   <si>
     <t>区域合作</t>
   </si>
   <si>
-    <t>协商</t>
+    <t>区间</t>
+  </si>
+  <si>
+    <t>医药集团</t>
+  </si>
+  <si>
+    <t>协议</t>
+  </si>
+  <si>
+    <t>单日</t>
   </si>
   <si>
     <t>单边主义</t>
   </si>
   <si>
+    <t>单针</t>
+  </si>
+  <si>
     <t>博会</t>
   </si>
   <si>
     <t>博览会</t>
   </si>
   <si>
+    <t>卫生部长</t>
+  </si>
+  <si>
     <t>危机</t>
   </si>
   <si>
     <t>历史</t>
   </si>
   <si>
+    <t>历史性</t>
+  </si>
+  <si>
     <t>原则</t>
   </si>
   <si>
-    <t>发生率</t>
+    <t>原液</t>
+  </si>
+  <si>
+    <t>友好关系</t>
+  </si>
+  <si>
+    <t>双方</t>
+  </si>
+  <si>
+    <t>双边</t>
+  </si>
+  <si>
+    <t>双边关系</t>
+  </si>
+  <si>
+    <t>双边合作</t>
   </si>
   <si>
     <t>变局</t>
@@ -229,7 +367,16 @@
     <t>口罩</t>
   </si>
   <si>
-    <t>合力</t>
+    <t>可持续性</t>
+  </si>
+  <si>
+    <t>台湾同胞</t>
+  </si>
+  <si>
+    <t>合作伙伴</t>
+  </si>
+  <si>
+    <t>合作项目</t>
   </si>
   <si>
     <t>合法席位</t>
@@ -238,30 +385,57 @@
     <t>同志</t>
   </si>
   <si>
+    <t>同意书</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
     <t>命运</t>
   </si>
   <si>
+    <t>哥方</t>
+  </si>
+  <si>
+    <t>哺乳期</t>
+  </si>
+  <si>
+    <t>因私</t>
+  </si>
+  <si>
     <t>团结合作</t>
   </si>
   <si>
+    <t>国务委员</t>
+  </si>
+  <si>
     <t>国家</t>
   </si>
   <si>
+    <t>国家主权</t>
+  </si>
+  <si>
+    <t>国情</t>
+  </si>
+  <si>
     <t>国药</t>
   </si>
   <si>
     <t>国际</t>
   </si>
   <si>
+    <t>国际事务</t>
+  </si>
+  <si>
+    <t>国际形势</t>
+  </si>
+  <si>
     <t>国际法</t>
   </si>
   <si>
     <t>地位</t>
   </si>
   <si>
-    <t>地区</t>
-  </si>
-  <si>
     <t>地球</t>
   </si>
   <si>
@@ -271,9 +445,30 @@
     <t>基础</t>
   </si>
   <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>增加值</t>
+  </si>
+  <si>
     <t>外交</t>
   </si>
   <si>
+    <t>外交政策</t>
+  </si>
+  <si>
+    <t>外资</t>
+  </si>
+  <si>
+    <t>外部环境</t>
+  </si>
+  <si>
+    <t>外长</t>
+  </si>
+  <si>
+    <t>多极化</t>
+  </si>
+  <si>
     <t>大会</t>
   </si>
   <si>
@@ -283,109 +478,232 @@
     <t>大变局</t>
   </si>
   <si>
+    <t>大陆</t>
+  </si>
+  <si>
+    <t>天花</t>
+  </si>
+  <si>
+    <t>奇温</t>
+  </si>
+  <si>
+    <t>奇迹</t>
+  </si>
+  <si>
+    <t>契机</t>
+  </si>
+  <si>
     <t>女士们</t>
   </si>
   <si>
-    <t>委员</t>
-  </si>
-  <si>
-    <t>宗旨</t>
+    <t>委员长</t>
+  </si>
+  <si>
+    <t>委疾控局</t>
+  </si>
+  <si>
+    <t>孕妇</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>宏观政策</t>
+  </si>
+  <si>
+    <t>定力</t>
   </si>
   <si>
     <t>宪章</t>
   </si>
   <si>
+    <t>对华关系</t>
+  </si>
+  <si>
+    <t>对华政策</t>
+  </si>
+  <si>
     <t>对话</t>
   </si>
   <si>
-    <t>导向</t>
+    <t>小区</t>
   </si>
   <si>
     <t>小康社会</t>
   </si>
   <si>
+    <t>局势</t>
+  </si>
+  <si>
+    <t>居民</t>
+  </si>
+  <si>
+    <t>屏障</t>
+  </si>
+  <si>
+    <t>岛国</t>
+  </si>
+  <si>
     <t>峰会</t>
   </si>
   <si>
+    <t>巡视员</t>
+  </si>
+  <si>
+    <t>工作人员</t>
+  </si>
+  <si>
     <t>市场</t>
   </si>
   <si>
     <t>市场主体</t>
   </si>
   <si>
-    <t>平台</t>
-  </si>
-  <si>
-    <t>建设者</t>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>年龄组</t>
+  </si>
+  <si>
+    <t>建设性</t>
   </si>
   <si>
     <t>开局</t>
   </si>
   <si>
+    <t>开幕式</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>强权政治</t>
+  </si>
+  <si>
+    <t>强音</t>
+  </si>
+  <si>
+    <t>当局</t>
+  </si>
+  <si>
     <t>征程</t>
   </si>
   <si>
-    <t>思想</t>
+    <t>志愿者</t>
   </si>
   <si>
     <t>总书记</t>
   </si>
   <si>
-    <t>情况</t>
+    <t>总人口</t>
+  </si>
+  <si>
+    <t>总剂</t>
+  </si>
+  <si>
+    <t>总干事</t>
+  </si>
+  <si>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>总统府</t>
+  </si>
+  <si>
+    <t>恐怖主义</t>
   </si>
   <si>
     <t>意义</t>
   </si>
   <si>
+    <t>感染者</t>
+  </si>
+  <si>
     <t>成员国</t>
   </si>
   <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>成年人</t>
+  </si>
+  <si>
     <t>成果</t>
   </si>
   <si>
+    <t>战书</t>
+  </si>
+  <si>
     <t>战略</t>
   </si>
   <si>
+    <t>战略伙伴</t>
+  </si>
+  <si>
     <t>战胜</t>
   </si>
   <si>
-    <t>技术</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>抗体</t>
   </si>
   <si>
+    <t>持久和平</t>
+  </si>
+  <si>
+    <t>提供者</t>
+  </si>
+  <si>
+    <t>攻关组</t>
+  </si>
+  <si>
     <t>政党</t>
   </si>
   <si>
     <t>政治</t>
   </si>
   <si>
+    <t>政治化</t>
+  </si>
+  <si>
     <t>政策</t>
   </si>
   <si>
+    <t>效力</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
     <t>数字</t>
   </si>
   <si>
-    <t>文化</t>
-  </si>
-  <si>
     <t>新冠</t>
   </si>
   <si>
+    <t>新台阶</t>
+  </si>
+  <si>
+    <t>新机遇</t>
+  </si>
+  <si>
+    <t>新篇章</t>
+  </si>
+  <si>
     <t>方向</t>
   </si>
   <si>
-    <t>方式</t>
-  </si>
-  <si>
-    <t>方案</t>
-  </si>
-  <si>
-    <t>旗帜</t>
+    <t>方愿</t>
+  </si>
+  <si>
+    <t>旅客</t>
   </si>
   <si>
     <t>日益</t>
@@ -397,40 +715,100 @@
     <t>时艰</t>
   </si>
   <si>
+    <t>景区</t>
+  </si>
+  <si>
+    <t>晶晶</t>
+  </si>
+  <si>
+    <t>智库</t>
+  </si>
+  <si>
     <t>有效性</t>
   </si>
   <si>
-    <t>机制</t>
+    <t>有效率</t>
+  </si>
+  <si>
+    <t>服务业</t>
+  </si>
+  <si>
+    <t>服贸</t>
+  </si>
+  <si>
+    <t>服贸会</t>
   </si>
   <si>
     <t>机遇</t>
   </si>
   <si>
-    <t>条件</t>
+    <t>权威专家</t>
+  </si>
+  <si>
+    <t>条约</t>
   </si>
   <si>
     <t>核心</t>
   </si>
   <si>
+    <t>核糖核酸</t>
+  </si>
+  <si>
+    <t>核酸</t>
+  </si>
+  <si>
+    <t>根本利益</t>
+  </si>
+  <si>
     <t>格局</t>
   </si>
   <si>
     <t>框架</t>
   </si>
   <si>
+    <t>正义</t>
+  </si>
+  <si>
+    <t>正确方向</t>
+  </si>
+  <si>
+    <t>步伐</t>
+  </si>
+  <si>
+    <t>毒株</t>
+  </si>
+  <si>
+    <t>比重</t>
+  </si>
+  <si>
     <t>民主</t>
   </si>
   <si>
-    <t>民族</t>
+    <t>民主自由</t>
+  </si>
+  <si>
+    <t>民众</t>
+  </si>
+  <si>
+    <t>民意基础</t>
+  </si>
+  <si>
+    <t>民族主义</t>
   </si>
   <si>
     <t>民生</t>
   </si>
   <si>
+    <t>气候</t>
+  </si>
+  <si>
     <t>气候变化</t>
   </si>
   <si>
-    <t>注射器</t>
+    <t>法方</t>
+  </si>
+  <si>
+    <t>注意事项</t>
   </si>
   <si>
     <t>活力</t>
@@ -442,10 +820,13 @@
     <t>流感疫苗</t>
   </si>
   <si>
-    <t>流程</t>
-  </si>
-  <si>
-    <t>海乐苗</t>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>游客</t>
+  </si>
+  <si>
+    <t>潜力</t>
   </si>
   <si>
     <t>潮流</t>
@@ -454,34 +835,70 @@
     <t>特色</t>
   </si>
   <si>
-    <t>环境</t>
+    <t>环境治理</t>
   </si>
   <si>
     <t>理念</t>
   </si>
   <si>
+    <t>理政</t>
+  </si>
+  <si>
+    <t>生产总值</t>
+  </si>
+  <si>
     <t>生态</t>
   </si>
   <si>
+    <t>生效</t>
+  </si>
+  <si>
     <t>生物</t>
   </si>
   <si>
     <t>生物制品</t>
   </si>
   <si>
-    <t>疫情</t>
+    <t>申请加入</t>
+  </si>
+  <si>
+    <t>疫后</t>
   </si>
   <si>
     <t>疫苗</t>
   </si>
   <si>
+    <t>疼痛</t>
+  </si>
+  <si>
+    <t>疾控中心</t>
+  </si>
+  <si>
+    <t>疾控局</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <t>病例</t>
+  </si>
+  <si>
     <t>病毒</t>
   </si>
   <si>
+    <t>病毒传播</t>
+  </si>
+  <si>
+    <t>病毒感染</t>
+  </si>
+  <si>
     <t>目标</t>
   </si>
   <si>
-    <t>着力</t>
+    <t>知情</t>
+  </si>
+  <si>
+    <t>研究所</t>
   </si>
   <si>
     <t>社会</t>
@@ -493,16 +910,37 @@
     <t>社会制度</t>
   </si>
   <si>
-    <t>科学</t>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>禁忌症</t>
+  </si>
+  <si>
+    <t>种者</t>
   </si>
   <si>
     <t>科技</t>
   </si>
   <si>
+    <t>科技交流</t>
+  </si>
+  <si>
+    <t>秘书长</t>
+  </si>
+  <si>
     <t>秩序</t>
   </si>
   <si>
-    <t>精神</t>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>立场</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>纲要</t>
   </si>
   <si>
     <t>经济</t>
@@ -511,21 +949,60 @@
     <t>经济体</t>
   </si>
   <si>
+    <t>经济学家</t>
+  </si>
+  <si>
+    <t>经济总量</t>
+  </si>
+  <si>
     <t>经济社会</t>
   </si>
   <si>
+    <t>经济运行</t>
+  </si>
+  <si>
+    <t>经贸</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>经验交流</t>
+  </si>
+  <si>
+    <t>结构性</t>
+  </si>
+  <si>
+    <t>继续加强</t>
+  </si>
+  <si>
     <t>维护者</t>
   </si>
   <si>
+    <t>维生物</t>
+  </si>
+  <si>
     <t>绿色</t>
   </si>
   <si>
+    <t>缔约方</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>群体</t>
+  </si>
+  <si>
+    <t>老年人</t>
+  </si>
+  <si>
+    <t>老方</t>
+  </si>
+  <si>
     <t>胸怀</t>
   </si>
   <si>
-    <t>能力</t>
-  </si>
-  <si>
     <t>能源</t>
   </si>
   <si>
@@ -535,36 +1012,102 @@
     <t>致力于</t>
   </si>
   <si>
+    <t>药物</t>
+  </si>
+  <si>
     <t>营商</t>
   </si>
   <si>
+    <t>蛋白</t>
+  </si>
+  <si>
+    <t>血栓</t>
+  </si>
+  <si>
+    <t>街道</t>
+  </si>
+  <si>
+    <t>覆盖率</t>
+  </si>
+  <si>
+    <t>观区</t>
+  </si>
+  <si>
+    <t>规划</t>
+  </si>
+  <si>
     <t>规则</t>
   </si>
   <si>
     <t>视频</t>
   </si>
   <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
     <t>议程</t>
   </si>
   <si>
+    <t>议长</t>
+  </si>
+  <si>
+    <t>议题</t>
+  </si>
+  <si>
     <t>讲话</t>
   </si>
   <si>
-    <t>评价</t>
-  </si>
-  <si>
-    <t>谣言</t>
+    <t>论坛</t>
+  </si>
+  <si>
+    <t>试验区</t>
+  </si>
+  <si>
+    <t>负面</t>
   </si>
   <si>
     <t>贡献</t>
   </si>
   <si>
-    <t>责任</t>
+    <t>财政部长</t>
+  </si>
+  <si>
+    <t>货币政策</t>
+  </si>
+  <si>
+    <t>贫困人口</t>
+  </si>
+  <si>
+    <t>贸易额</t>
   </si>
   <si>
     <t>赤字</t>
   </si>
   <si>
+    <t>走廊</t>
+  </si>
+  <si>
+    <t>起点</t>
+  </si>
+  <si>
+    <t>跨国</t>
+  </si>
+  <si>
+    <t>跨国企业</t>
+  </si>
+  <si>
+    <t>跨国公司</t>
+  </si>
+  <si>
+    <t>跨境</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
     <t>路线</t>
   </si>
   <si>
@@ -577,22 +1120,70 @@
     <t>辩论</t>
   </si>
   <si>
+    <t>运动员</t>
+  </si>
+  <si>
+    <t>进步事业</t>
+  </si>
+  <si>
     <t>进程</t>
   </si>
   <si>
-    <t>连线</t>
+    <t>远景</t>
+  </si>
+  <si>
+    <t>连续性</t>
+  </si>
+  <si>
+    <t>适龄</t>
+  </si>
+  <si>
+    <t>通话</t>
   </si>
   <si>
     <t>道路</t>
   </si>
   <si>
+    <t>重症</t>
+  </si>
+  <si>
     <t>金砖</t>
   </si>
   <si>
-    <t>集团</t>
-  </si>
-  <si>
-    <t>项目</t>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>金融危机</t>
+  </si>
+  <si>
+    <t>金边</t>
+  </si>
+  <si>
+    <t>针剂</t>
+  </si>
+  <si>
+    <t>针头</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>间隔</t>
+  </si>
+  <si>
+    <t>阴性</t>
+  </si>
+  <si>
+    <t>阴霾</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>霸权主义</t>
+  </si>
+  <si>
+    <t>韧性</t>
   </si>
   <si>
     <t>预防接种</t>
@@ -607,7 +1198,16 @@
     <t>领导人</t>
   </si>
   <si>
-    <t>马克思主义</t>
+    <t>首剂</t>
+  </si>
+  <si>
+    <t>首针</t>
+  </si>
+  <si>
+    <t>高层</t>
+  </si>
+  <si>
+    <t>高度评价</t>
   </si>
   <si>
     <t>高质量</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>0.3412732412927134</v>
+        <v>5.96723228460677</v>
       </c>
       <c r="C2">
-        <v>0.4068308300023139</v>
+        <v>0.3476712041862264</v>
       </c>
       <c r="D2">
-        <v>0.3808104374252609</v>
+        <v>2.558957963804281</v>
       </c>
       <c r="E2">
-        <v>0.3684241835115347</v>
+        <v>3.807848890235503</v>
       </c>
       <c r="F2">
-        <v>53.03004426478498</v>
+        <v>0.8275621932809681</v>
       </c>
       <c r="G2">
-        <v>193.0584116644526</v>
+        <v>39.48602419177029</v>
       </c>
       <c r="H2">
-        <v>0.3485314711360508</v>
+        <v>4.519667785237259</v>
       </c>
       <c r="I2">
-        <v>0.3403802659323684</v>
+        <v>0.3916179348618298</v>
       </c>
       <c r="J2">
-        <v>0.3451360252339249</v>
+        <v>0.3391471519961931</v>
       </c>
       <c r="K2">
-        <v>0.3385394305531801</v>
+        <v>0.3388391989324611</v>
       </c>
       <c r="L2">
-        <v>30.5523651299232</v>
+        <v>10.1661352141526</v>
       </c>
       <c r="M2">
-        <v>0.3407402684857014</v>
+        <v>0.3476707577334811</v>
       </c>
       <c r="N2">
-        <v>0.3379379918447482</v>
+        <v>18.30708766456302</v>
       </c>
       <c r="O2">
-        <v>16.41091905449196</v>
+        <v>0.35702585419459</v>
       </c>
       <c r="P2">
-        <v>116.2167172195258</v>
+        <v>0.3945616366464251</v>
       </c>
       <c r="Q2">
-        <v>67.87421433716206</v>
+        <v>0.341134443448961</v>
       </c>
       <c r="R2">
-        <v>148.8411682692598</v>
+        <v>0.4935152136651884</v>
       </c>
       <c r="S2">
-        <v>268.0379946318709</v>
+        <v>0.3366897791804709</v>
       </c>
       <c r="T2">
-        <v>0.360265697513499</v>
+        <v>0.543737084918727</v>
       </c>
       <c r="U2">
-        <v>0.358056507860931</v>
+        <v>0.3673648852043431</v>
       </c>
       <c r="V2">
-        <v>17.72835077202352</v>
+        <v>1.595346501936056</v>
       </c>
       <c r="W2">
-        <v>23.24340480173036</v>
+        <v>0.3368474969184783</v>
       </c>
       <c r="X2">
-        <v>7.241879881599274</v>
+        <v>0.3355902978201877</v>
       </c>
       <c r="Y2">
-        <v>620.8635778213987</v>
+        <v>0.4788736604065963</v>
       </c>
       <c r="Z2">
-        <v>98.75298324924789</v>
+        <v>0.4203251664081267</v>
       </c>
       <c r="AA2">
-        <v>0.3508137814638889</v>
+        <v>0.3518571605370269</v>
       </c>
       <c r="AB2">
-        <v>69.933731955881</v>
+        <v>0.3534271405865055</v>
       </c>
       <c r="AC2">
-        <v>28.00860998546816</v>
+        <v>17.96874867792506</v>
       </c>
       <c r="AD2">
-        <v>186.3687325963846</v>
+        <v>8.346161151528069</v>
       </c>
       <c r="AE2">
-        <v>32.96437235173203</v>
+        <v>2.105874644195378</v>
       </c>
       <c r="AF2">
-        <v>0.3732061822712561</v>
+        <v>10.8682970358674</v>
       </c>
       <c r="AG2">
-        <v>0.342055021392067</v>
+        <v>0.3617519983752784</v>
       </c>
       <c r="AH2">
-        <v>23.14743950722427</v>
+        <v>0.4687205921442416</v>
       </c>
       <c r="AI2">
-        <v>0.3570008174281992</v>
+        <v>6.190993664888585</v>
       </c>
       <c r="AJ2">
-        <v>31.81855158164207</v>
+        <v>75.43831622818327</v>
       </c>
       <c r="AK2">
-        <v>0.3432948758918292</v>
+        <v>1.282776031610433</v>
       </c>
       <c r="AL2">
-        <v>0.3427874371394846</v>
+        <v>0.3752040307088596</v>
       </c>
       <c r="AM2">
-        <v>5.844597832747159</v>
+        <v>0.3365442965849711</v>
       </c>
       <c r="AN2">
-        <v>0.3756984969974503</v>
+        <v>0.4363530755830043</v>
       </c>
       <c r="AO2">
-        <v>0.3376948008791921</v>
+        <v>0.3381554666156041</v>
       </c>
       <c r="AP2">
-        <v>150.2038142765871</v>
+        <v>14.40093255566804</v>
       </c>
       <c r="AQ2">
-        <v>0.3953122752419258</v>
+        <v>14.89731980099875</v>
       </c>
       <c r="AR2">
-        <v>0.344315036842674</v>
+        <v>0.412036693922076</v>
       </c>
       <c r="AS2">
-        <v>0.3511615602620554</v>
+        <v>2.142926998270152</v>
       </c>
       <c r="AT2">
-        <v>0.3395338164633172</v>
+        <v>0.6791998483752231</v>
       </c>
       <c r="AU2">
-        <v>0.3417112748527025</v>
+        <v>0.3755989452468184</v>
       </c>
       <c r="AV2">
-        <v>0.3480216391461105</v>
+        <v>1.43266377591362</v>
       </c>
       <c r="AW2">
-        <v>14.99353135610647</v>
+        <v>0.3363070282881931</v>
       </c>
       <c r="AX2">
-        <v>8.884926531498142</v>
+        <v>1.759241440114451</v>
       </c>
       <c r="AY2">
-        <v>111.4103589126583</v>
+        <v>2.668338483790879</v>
       </c>
       <c r="AZ2">
-        <v>0.3978993472763652</v>
+        <v>0.4511474269233801</v>
       </c>
       <c r="BA2">
-        <v>174.3308441318212</v>
+        <v>3.307654482425426</v>
       </c>
       <c r="BB2">
-        <v>35.86297485123554</v>
+        <v>0.418018984289241</v>
       </c>
       <c r="BC2">
-        <v>0.3532241470686276</v>
+        <v>0.3463501529903634</v>
       </c>
       <c r="BD2">
-        <v>96.78173722126959</v>
+        <v>35.71367742559263</v>
       </c>
       <c r="BE2">
-        <v>21.58279620865037</v>
+        <v>8.080401839227065</v>
       </c>
       <c r="BF2">
-        <v>14.15250792907369</v>
+        <v>0.3419758764824903</v>
       </c>
       <c r="BG2">
-        <v>52.65739010897655</v>
+        <v>0.3975350721608766</v>
       </c>
       <c r="BH2">
-        <v>212.2004403453765</v>
+        <v>0.3466346295002907</v>
       </c>
       <c r="BI2">
-        <v>0.3400084672998102</v>
+        <v>49.17747948742578</v>
       </c>
       <c r="BJ2">
-        <v>2.85588677258754</v>
+        <v>0.3383354496906696</v>
       </c>
       <c r="BK2">
-        <v>0.3528901008808825</v>
+        <v>0.3701417269500928</v>
       </c>
       <c r="BL2">
-        <v>0.3836276817559909</v>
+        <v>0.5259541483155421</v>
       </c>
       <c r="BM2">
-        <v>0.3833035359137741</v>
+        <v>18.0446684797515</v>
       </c>
       <c r="BN2">
-        <v>14.13690028652215</v>
+        <v>7.590557364534471</v>
       </c>
       <c r="BO2">
-        <v>11.33000601953791</v>
+        <v>1.775915364807564</v>
       </c>
       <c r="BP2">
-        <v>18.63582119196899</v>
+        <v>0.3366283804066044</v>
       </c>
       <c r="BQ2">
-        <v>0.3515364511366917</v>
+        <v>0.3581759526584757</v>
       </c>
       <c r="BR2">
-        <v>0.343604859689881</v>
+        <v>0.3827328780058609</v>
       </c>
       <c r="BS2">
-        <v>0.3895447036214028</v>
+        <v>0.3438431382938521</v>
       </c>
       <c r="BT2">
-        <v>2090.278346043484</v>
+        <v>0.3688996056395071</v>
       </c>
       <c r="BU2">
-        <v>11.44694640663054</v>
+        <v>0.3582317103401672</v>
       </c>
       <c r="BV2">
-        <v>0.3338490745576677</v>
+        <v>0.3377447043790546</v>
       </c>
       <c r="BW2">
-        <v>17.74219265152638</v>
+        <v>0.3395476969235378</v>
       </c>
       <c r="BX2">
-        <v>0.3385438558209007</v>
+        <v>0.4333236628591494</v>
       </c>
       <c r="BY2">
-        <v>0.3370177606419673</v>
+        <v>0.3418794561477538</v>
       </c>
       <c r="BZ2">
-        <v>174.6518677897016</v>
+        <v>0.4676758341367794</v>
       </c>
       <c r="CA2">
-        <v>0.3613603477275414</v>
+        <v>0.3611775943199126</v>
       </c>
       <c r="CB2">
-        <v>42.97834441599809</v>
+        <v>0.3854650197405963</v>
       </c>
       <c r="CC2">
-        <v>0.3341683493217901</v>
+        <v>0.3496623474388702</v>
       </c>
       <c r="CD2">
-        <v>9.558811727923517</v>
+        <v>0.3399521747521111</v>
       </c>
       <c r="CE2">
-        <v>403.8289651719776</v>
+        <v>0.4549878039096352</v>
       </c>
       <c r="CF2">
-        <v>0.3693643908743286</v>
+        <v>0.3395926858532338</v>
       </c>
       <c r="CG2">
-        <v>0.3351803496812419</v>
+        <v>0.4944024147813406</v>
       </c>
       <c r="CH2">
-        <v>98.87147783160411</v>
+        <v>0.4007390890804081</v>
       </c>
       <c r="CI2">
-        <v>0.3413740322233078</v>
+        <v>6.406563266594809</v>
       </c>
       <c r="CJ2">
-        <v>25.30520451076694</v>
+        <v>0.3484339698492827</v>
       </c>
       <c r="CK2">
-        <v>0.398142510329601</v>
+        <v>3.915439870268649</v>
       </c>
       <c r="CL2">
-        <v>0.3637935084075908</v>
+        <v>4.299850630213709</v>
       </c>
       <c r="CM2">
-        <v>0.3374707923030273</v>
+        <v>0.537560456435506</v>
       </c>
       <c r="CN2">
-        <v>78.13573739467357</v>
+        <v>0.3617269468890454</v>
       </c>
       <c r="CO2">
-        <v>0.3372701084154747</v>
+        <v>0.3573749008728312</v>
       </c>
       <c r="CP2">
-        <v>0.3335975939637139</v>
+        <v>0.3454479141487086</v>
       </c>
       <c r="CQ2">
-        <v>0.3497800180544606</v>
+        <v>0.3465669385441973</v>
       </c>
       <c r="CR2">
-        <v>14.996197277357</v>
+        <v>0.336703832787279</v>
       </c>
       <c r="CS2">
-        <v>0.368720765770614</v>
+        <v>0.361752287909243</v>
       </c>
       <c r="CT2">
-        <v>0.3693945370627532</v>
+        <v>2.760022219177666</v>
       </c>
       <c r="CU2">
-        <v>311.0849193026033</v>
+        <v>8.899136946628809</v>
       </c>
       <c r="CV2">
-        <v>159.3162335509945</v>
+        <v>21.33186622068705</v>
       </c>
       <c r="CW2">
-        <v>201.9587951505662</v>
+        <v>0.3514738357645271</v>
       </c>
       <c r="CX2">
-        <v>0.4736025635228933</v>
+        <v>2.548241107028709</v>
       </c>
       <c r="CY2">
-        <v>26.76853337124543</v>
+        <v>0.3387944886744313</v>
       </c>
       <c r="CZ2">
-        <v>0.4027280115487381</v>
+        <v>0.3448051994298237</v>
       </c>
       <c r="DA2">
-        <v>28.89079359810532</v>
+        <v>8.706714835602398</v>
       </c>
       <c r="DB2">
-        <v>32.27665871631178</v>
+        <v>1.498836469878432</v>
       </c>
       <c r="DC2">
-        <v>188.5162868802071</v>
+        <v>0.3989834372186092</v>
       </c>
       <c r="DD2">
-        <v>0.3804274923242683</v>
+        <v>0.3445236862190179</v>
       </c>
       <c r="DE2">
-        <v>0.3364905397143177</v>
+        <v>7.011783200694548</v>
       </c>
       <c r="DF2">
-        <v>62.6862273700283</v>
+        <v>5.074698559748686</v>
       </c>
       <c r="DG2">
-        <v>86.08472044232344</v>
+        <v>0.3500399917824966</v>
       </c>
       <c r="DH2">
-        <v>0.3956793480135539</v>
+        <v>0.3620383877567847</v>
       </c>
       <c r="DI2">
-        <v>191.8754301360959</v>
+        <v>0.7023925532923969</v>
       </c>
       <c r="DJ2">
-        <v>0.3929590693838997</v>
+        <v>0.3351242322264039</v>
       </c>
       <c r="DK2">
-        <v>0.3557542755573894</v>
+        <v>0.3374327404320946</v>
       </c>
       <c r="DL2">
-        <v>39.18752484769691</v>
+        <v>0.3367890931840337</v>
       </c>
       <c r="DM2">
-        <v>296.627331621448</v>
+        <v>70.99668068790642</v>
       </c>
       <c r="DN2">
-        <v>52.82976657732449</v>
+        <v>115.8839904306975</v>
       </c>
       <c r="DO2">
-        <v>63.88833829776519</v>
+        <v>0.3390849839269922</v>
       </c>
       <c r="DP2">
-        <v>53.44060113301573</v>
+        <v>14.23993497173526</v>
       </c>
       <c r="DQ2">
-        <v>187.6920900032768</v>
+        <v>0.4613109084171775</v>
       </c>
       <c r="DR2">
-        <v>0.4089223637939841</v>
+        <v>0.4018025451326341</v>
       </c>
       <c r="DS2">
-        <v>109.4877851163219</v>
+        <v>0.3364267696757522</v>
       </c>
       <c r="DT2">
-        <v>101.1727097784866</v>
+        <v>0.3489620261207108</v>
       </c>
       <c r="DU2">
-        <v>0.3348974564454321</v>
+        <v>3.272002276959761</v>
       </c>
       <c r="DV2">
-        <v>7.409741385408344</v>
+        <v>0.3608451274876334</v>
       </c>
       <c r="DW2">
-        <v>27.29429268271291</v>
+        <v>0.3657923793935621</v>
       </c>
       <c r="DX2">
-        <v>0.3699970211097401</v>
+        <v>0.3452469921748959</v>
       </c>
       <c r="DY2">
-        <v>2.342873512972564</v>
+        <v>2.281535544193966</v>
       </c>
       <c r="DZ2">
-        <v>158.8902295769719</v>
+        <v>2.356481629149601</v>
       </c>
       <c r="EA2">
-        <v>13.31886642384953</v>
+        <v>0.3905217898989441</v>
       </c>
       <c r="EB2">
-        <v>48.40208581216906</v>
+        <v>0.368323432867785</v>
       </c>
       <c r="EC2">
-        <v>63.02384950750012</v>
+        <v>62.06395358432066</v>
       </c>
       <c r="ED2">
-        <v>10.15153965674389</v>
+        <v>0.3426811364516924</v>
       </c>
       <c r="EE2">
-        <v>0.3597220500211564</v>
+        <v>0.3954284302365063</v>
       </c>
       <c r="EF2">
-        <v>0.362303283900447</v>
+        <v>24.28455560522001</v>
       </c>
       <c r="EG2">
-        <v>12.99318686576561</v>
+        <v>17.54803060964073</v>
       </c>
       <c r="EH2">
-        <v>69.25718609585698</v>
+        <v>0.3358236603952833</v>
       </c>
       <c r="EI2">
-        <v>0.347344591965672</v>
+        <v>0.3383944454214106</v>
       </c>
       <c r="EJ2">
-        <v>74.24138341786335</v>
+        <v>0.3563836436452411</v>
       </c>
       <c r="EK2">
-        <v>53.71280070914673</v>
+        <v>0.3676981331365275</v>
       </c>
       <c r="EL2">
-        <v>0.3707075950519111</v>
+        <v>0.3918736518961518</v>
       </c>
       <c r="EM2">
-        <v>0.335657125058022</v>
+        <v>0.3403478841992668</v>
       </c>
       <c r="EN2">
-        <v>8.290552956248323</v>
+        <v>4.930348338061668</v>
       </c>
       <c r="EO2">
-        <v>0.3333476724001811</v>
+        <v>0.3713126492208135</v>
       </c>
       <c r="EP2">
-        <v>0.3402557250122981</v>
+        <v>0.3390165776078257</v>
       </c>
       <c r="EQ2">
-        <v>35.34914494228414</v>
+        <v>0.3508106313200846</v>
       </c>
       <c r="ER2">
-        <v>212.4245676627171</v>
+        <v>0.3665729559880309</v>
       </c>
       <c r="ES2">
-        <v>14.4969334984968</v>
+        <v>0.3369125900549631</v>
       </c>
       <c r="ET2">
-        <v>15.60977655787104</v>
+        <v>0.340871167191572</v>
       </c>
       <c r="EU2">
-        <v>0.4133733358279249</v>
+        <v>0.3901998315514242</v>
       </c>
       <c r="EV2">
-        <v>0.3530729293226206</v>
+        <v>0.3362390661605124</v>
       </c>
       <c r="EW2">
-        <v>2175.471905901256</v>
+        <v>0.3798133958798935</v>
       </c>
       <c r="EX2">
-        <v>0.3894605310282703</v>
+        <v>0.3417557065679958</v>
       </c>
       <c r="EY2">
-        <v>62.58182454390928</v>
+        <v>0.3370395585529596</v>
       </c>
       <c r="EZ2">
-        <v>53.18725610113913</v>
+        <v>29.43449789435991</v>
       </c>
       <c r="FA2">
-        <v>49.77389977030149</v>
+        <v>2.89696150981106</v>
       </c>
       <c r="FB2">
-        <v>203.4135322784</v>
+        <v>1.701933272851664</v>
       </c>
       <c r="FC2">
-        <v>4.422847769062526</v>
+        <v>0.3569486456888749</v>
       </c>
       <c r="FD2">
-        <v>0.3551701154032857</v>
+        <v>0.3603123204089185</v>
       </c>
       <c r="FE2">
-        <v>202.6562801133687</v>
+        <v>0.3362286972275376</v>
       </c>
       <c r="FF2">
-        <v>435.943442962121</v>
+        <v>0.3360523020381601</v>
       </c>
       <c r="FG2">
-        <v>23.93015056663977</v>
+        <v>3.929441444980283</v>
       </c>
       <c r="FH2">
-        <v>31.3673644175621</v>
+        <v>4.499401173822582</v>
       </c>
       <c r="FI2">
-        <v>122.0517629319849</v>
+        <v>0.3920025404358464</v>
       </c>
       <c r="FJ2">
-        <v>0.3712863939365463</v>
+        <v>0.405536268025683</v>
       </c>
       <c r="FK2">
-        <v>47.14409740854375</v>
+        <v>0.3366988881596674</v>
       </c>
       <c r="FL2">
-        <v>0.3336719823453505</v>
+        <v>0.3410613526102165</v>
       </c>
       <c r="FM2">
-        <v>0.4030653344645096</v>
+        <v>0.3406929109166195</v>
       </c>
       <c r="FN2">
-        <v>0.3493426958963178</v>
+        <v>0.3380358205275972</v>
       </c>
       <c r="FO2">
-        <v>146.6876555859362</v>
+        <v>0.3367824497577487</v>
       </c>
       <c r="FP2">
-        <v>0.3732595503627919</v>
+        <v>0.3665998489026439</v>
       </c>
       <c r="FQ2">
-        <v>0.3365135109720316</v>
+        <v>0.3407146677807613</v>
       </c>
       <c r="FR2">
-        <v>0.381427571710081</v>
+        <v>0.3383313499414463</v>
       </c>
       <c r="FS2">
-        <v>47.38674403793337</v>
+        <v>0.816825633940248</v>
       </c>
       <c r="FT2">
-        <v>4.539598318530673</v>
+        <v>0.3797192936444451</v>
       </c>
       <c r="FU2">
-        <v>56.25114950763833</v>
+        <v>20.97830044824106</v>
       </c>
       <c r="FV2">
-        <v>0.3405349237636207</v>
+        <v>0.3497069888305866</v>
       </c>
       <c r="FW2">
-        <v>0.3625683544478643</v>
+        <v>0.3515623635308949</v>
       </c>
       <c r="FX2">
-        <v>39.96355736213373</v>
+        <v>4.506320355656668</v>
       </c>
       <c r="FY2">
-        <v>0.5615605116875957</v>
+        <v>0.4198244043673522</v>
       </c>
       <c r="FZ2">
-        <v>8.689784637978885</v>
+        <v>0.3940211828758385</v>
       </c>
       <c r="GA2">
-        <v>84.12659016270329</v>
+        <v>0.3436116697655098</v>
       </c>
       <c r="GB2">
-        <v>0.3517080615840019</v>
+        <v>12.45694216040446</v>
       </c>
       <c r="GC2">
-        <v>5.408400758691292</v>
+        <v>2.952138820272979</v>
       </c>
       <c r="GD2">
-        <v>12.73880606404353</v>
+        <v>0.3642954735028432</v>
       </c>
       <c r="GE2">
-        <v>0.3952110845983193</v>
+        <v>0.340576187692794</v>
       </c>
       <c r="GF2">
-        <v>0.3459917037243833</v>
+        <v>0.3775986048779554</v>
       </c>
       <c r="GG2">
-        <v>0.3765067037325405</v>
+        <v>0.3445582343481119</v>
       </c>
       <c r="GH2">
-        <v>0.3643916696701704</v>
+        <v>0.3465664880070941</v>
       </c>
       <c r="GI2">
-        <v>30.32472155226887</v>
+        <v>0.3422527073367313</v>
       </c>
       <c r="GJ2">
-        <v>0.3334407327418853</v>
+        <v>22.02702442220786</v>
       </c>
       <c r="GK2">
-        <v>74.85115350151193</v>
+        <v>0.3432114495646851</v>
       </c>
       <c r="GL2">
-        <v>119.2621637295142</v>
+        <v>0.356785298814788</v>
       </c>
       <c r="GM2">
-        <v>0.3360541384659296</v>
+        <v>0.3539883114650283</v>
       </c>
       <c r="GN2">
-        <v>90.98999489677468</v>
+        <v>6.075338725666183</v>
       </c>
       <c r="GO2">
-        <v>35.84983916178169</v>
+        <v>1.51106167024828</v>
       </c>
       <c r="GP2">
-        <v>0.3506684771707335</v>
+        <v>6.555349737023359</v>
       </c>
       <c r="GQ2">
-        <v>0.3809223839989405</v>
+        <v>5.565347228581207</v>
       </c>
       <c r="GR2">
-        <v>66.55867616552146</v>
+        <v>14.43458853011755</v>
       </c>
       <c r="GS2">
-        <v>0.3562442285137668</v>
+        <v>2.385949146256028</v>
+      </c>
+      <c r="GT2">
+        <v>0.3626573235285608</v>
+      </c>
+      <c r="GU2">
+        <v>1.565331228443297</v>
+      </c>
+      <c r="GV2">
+        <v>1.56811213818374</v>
+      </c>
+      <c r="GW2">
+        <v>1.963123497671267</v>
+      </c>
+      <c r="GX2">
+        <v>0.3630200238626912</v>
+      </c>
+      <c r="GY2">
+        <v>6.767347133184757</v>
+      </c>
+      <c r="GZ2">
+        <v>1.854111734245652</v>
+      </c>
+      <c r="HA2">
+        <v>0.3353998712212926</v>
+      </c>
+      <c r="HB2">
+        <v>0.4259068834627757</v>
+      </c>
+      <c r="HC2">
+        <v>0.3413941473011593</v>
+      </c>
+      <c r="HD2">
+        <v>11.90041729378514</v>
+      </c>
+      <c r="HE2">
+        <v>0.3570647952162515</v>
+      </c>
+      <c r="HF2">
+        <v>17.88473642608556</v>
+      </c>
+      <c r="HG2">
+        <v>0.3358380268318022</v>
+      </c>
+      <c r="HH2">
+        <v>0.3367746330747968</v>
+      </c>
+      <c r="HI2">
+        <v>4.069312185431437</v>
+      </c>
+      <c r="HJ2">
+        <v>0.3535391036142806</v>
+      </c>
+      <c r="HK2">
+        <v>17.54437112674679</v>
+      </c>
+      <c r="HL2">
+        <v>11.46237090100596</v>
+      </c>
+      <c r="HM2">
+        <v>3.591953661822477</v>
+      </c>
+      <c r="HN2">
+        <v>6.919286239993824</v>
+      </c>
+      <c r="HO2">
+        <v>22.98329400916062</v>
+      </c>
+      <c r="HP2">
+        <v>1.634294077315003</v>
+      </c>
+      <c r="HQ2">
+        <v>213.3840496097372</v>
+      </c>
+      <c r="HR2">
+        <v>0.3525679956266413</v>
+      </c>
+      <c r="HS2">
+        <v>0.3397324930494317</v>
+      </c>
+      <c r="HT2">
+        <v>0.3432481460532604</v>
+      </c>
+      <c r="HU2">
+        <v>0.416740013448763</v>
+      </c>
+      <c r="HV2">
+        <v>0.3383288684657127</v>
+      </c>
+      <c r="HW2">
+        <v>0.3551732020227493</v>
+      </c>
+      <c r="HX2">
+        <v>0.4344159401005725</v>
+      </c>
+      <c r="HY2">
+        <v>0.3576127314680476</v>
+      </c>
+      <c r="HZ2">
+        <v>0.3655262852240268</v>
+      </c>
+      <c r="IA2">
+        <v>0.3421212660040214</v>
+      </c>
+      <c r="IB2">
+        <v>4.369152924332036</v>
+      </c>
+      <c r="IC2">
+        <v>0.4702160199064993</v>
+      </c>
+      <c r="ID2">
+        <v>14.18213789182975</v>
+      </c>
+      <c r="IE2">
+        <v>3.204834785266747</v>
+      </c>
+      <c r="IF2">
+        <v>0.3838138823030892</v>
+      </c>
+      <c r="IG2">
+        <v>0.3858338426353817</v>
+      </c>
+      <c r="IH2">
+        <v>0.3416929964945332</v>
+      </c>
+      <c r="II2">
+        <v>0.3441126264067406</v>
+      </c>
+      <c r="IJ2">
+        <v>3.282155618493392</v>
+      </c>
+      <c r="IK2">
+        <v>0.3379020986641507</v>
+      </c>
+      <c r="IL2">
+        <v>0.5777221969897286</v>
+      </c>
+      <c r="IM2">
+        <v>1.456870424275457</v>
+      </c>
+      <c r="IN2">
+        <v>0.3600200403099574</v>
+      </c>
+      <c r="IO2">
+        <v>0.3378081377810045</v>
+      </c>
+      <c r="IP2">
+        <v>0.3458775136100715</v>
+      </c>
+      <c r="IQ2">
+        <v>0.375461740286812</v>
+      </c>
+      <c r="IR2">
+        <v>0.3567441037157083</v>
+      </c>
+      <c r="IS2">
+        <v>0.3596894143769908</v>
+      </c>
+      <c r="IT2">
+        <v>0.3533270090903702</v>
+      </c>
+      <c r="IU2">
+        <v>48.91019237773511</v>
+      </c>
+      <c r="IV2">
+        <v>0.3420992267015922</v>
+      </c>
+      <c r="IW2">
+        <v>0.3494673390403232</v>
+      </c>
+      <c r="IX2">
+        <v>0.3360725199341041</v>
+      </c>
+      <c r="IY2">
+        <v>54.62207098211307</v>
+      </c>
+      <c r="IZ2">
+        <v>0.3355200893253083</v>
+      </c>
+      <c r="JA2">
+        <v>5.17014810122217</v>
+      </c>
+      <c r="JB2">
+        <v>0.3599798086193491</v>
+      </c>
+      <c r="JC2">
+        <v>0.4885155306629894</v>
+      </c>
+      <c r="JD2">
+        <v>0.3467237093696585</v>
+      </c>
+      <c r="JE2">
+        <v>0.3374211305827866</v>
+      </c>
+      <c r="JF2">
+        <v>5.023891997751373</v>
+      </c>
+      <c r="JG2">
+        <v>0.350681700114479</v>
+      </c>
+      <c r="JH2">
+        <v>23.86186275912719</v>
+      </c>
+      <c r="JI2">
+        <v>6.213589205263487</v>
+      </c>
+      <c r="JJ2">
+        <v>15.0381258075371</v>
+      </c>
+      <c r="JK2">
+        <v>0.3464630423662258</v>
+      </c>
+      <c r="JL2">
+        <v>0.3699487864438321</v>
+      </c>
+      <c r="JM2">
+        <v>0.3462229334987711</v>
+      </c>
+      <c r="JN2">
+        <v>0.3542464873258642</v>
+      </c>
+      <c r="JO2">
+        <v>0.3396152738839431</v>
+      </c>
+      <c r="JP2">
+        <v>0.378984911354198</v>
+      </c>
+      <c r="JQ2">
+        <v>0.3370423365549077</v>
+      </c>
+      <c r="JR2">
+        <v>0.3504667346856316</v>
+      </c>
+      <c r="JS2">
+        <v>0.3511577061629642</v>
+      </c>
+      <c r="JT2">
+        <v>1.406535998978625</v>
+      </c>
+      <c r="JU2">
+        <v>23.28898496359061</v>
+      </c>
+      <c r="JV2">
+        <v>4.894264018279663</v>
+      </c>
+      <c r="JW2">
+        <v>0.3388692398233007</v>
+      </c>
+      <c r="JX2">
+        <v>0.3522913686185002</v>
+      </c>
+      <c r="JY2">
+        <v>451.8546688024099</v>
+      </c>
+      <c r="JZ2">
+        <v>3.555439025787282</v>
+      </c>
+      <c r="KA2">
+        <v>30.09415883458441</v>
+      </c>
+      <c r="KB2">
+        <v>5.848948880349049</v>
+      </c>
+      <c r="KC2">
+        <v>40.49871686630578</v>
+      </c>
+      <c r="KD2">
+        <v>115.0644424403935</v>
+      </c>
+      <c r="KE2">
+        <v>163.9215259578292</v>
+      </c>
+      <c r="KF2">
+        <v>14.64929194848584</v>
+      </c>
+      <c r="KG2">
+        <v>9.164106809010651</v>
+      </c>
+      <c r="KH2">
+        <v>5.888494844652108</v>
+      </c>
+      <c r="KI2">
+        <v>7.235486287193098</v>
+      </c>
+      <c r="KJ2">
+        <v>17.38080953368958</v>
+      </c>
+      <c r="KK2">
+        <v>10.08951585105714</v>
+      </c>
+      <c r="KL2">
+        <v>0.3403852443826754</v>
+      </c>
+      <c r="KM2">
+        <v>0.3363612887095933</v>
+      </c>
+      <c r="KN2">
+        <v>0.3619196607609518</v>
+      </c>
+      <c r="KO2">
+        <v>2.958947731127496</v>
+      </c>
+      <c r="KP2">
+        <v>3.723035553997478</v>
+      </c>
+      <c r="KQ2">
+        <v>0.4537444726179017</v>
+      </c>
+      <c r="KR2">
+        <v>0.339353839763755</v>
+      </c>
+      <c r="KS2">
+        <v>2.734809242078746</v>
+      </c>
+      <c r="KT2">
+        <v>0.3580150948174439</v>
+      </c>
+      <c r="KU2">
+        <v>0.357796295850098</v>
+      </c>
+      <c r="KV2">
+        <v>0.8233564819658535</v>
+      </c>
+      <c r="KW2">
+        <v>0.3382532853197838</v>
+      </c>
+      <c r="KX2">
+        <v>0.3416841668395105</v>
+      </c>
+      <c r="KY2">
+        <v>0.3673548898950297</v>
+      </c>
+      <c r="KZ2">
+        <v>0.3519881181305174</v>
+      </c>
+      <c r="LA2">
+        <v>0.34866418470262</v>
+      </c>
+      <c r="LB2">
+        <v>0.3400323284378488</v>
+      </c>
+      <c r="LC2">
+        <v>0.3731141986482282</v>
+      </c>
+      <c r="LD2">
+        <v>0.3479360121160213</v>
+      </c>
+      <c r="LE2">
+        <v>0.3377171958460125</v>
+      </c>
+      <c r="LF2">
+        <v>6.155241881371349</v>
+      </c>
+      <c r="LG2">
+        <v>0.3796430569904746</v>
+      </c>
+      <c r="LH2">
+        <v>0.3482886268399047</v>
+      </c>
+      <c r="LI2">
+        <v>0.4770492779516919</v>
+      </c>
+      <c r="LJ2">
+        <v>0.3360990908467648</v>
+      </c>
+      <c r="LK2">
+        <v>3.432291383034066</v>
+      </c>
+      <c r="LL2">
+        <v>0.3686666467324795</v>
+      </c>
+      <c r="LM2">
+        <v>0.3374025758687919</v>
+      </c>
+      <c r="LN2">
+        <v>0.3691517816838622</v>
+      </c>
+      <c r="LO2">
+        <v>22.19330018559342</v>
+      </c>
+      <c r="LP2">
+        <v>10.36385119445834</v>
+      </c>
+      <c r="LQ2">
+        <v>0.3434540933743151</v>
+      </c>
+      <c r="LR2">
+        <v>0.344209295299874</v>
+      </c>
+      <c r="LS2">
+        <v>0.3435212565513439</v>
+      </c>
+      <c r="LT2">
+        <v>8.872407283427648</v>
+      </c>
+      <c r="LU2">
+        <v>0.4227543445207169</v>
+      </c>
+      <c r="LV2">
+        <v>14.3902753562802</v>
+      </c>
+      <c r="LW2">
+        <v>0.339767644326105</v>
+      </c>
+      <c r="LX2">
+        <v>6.978548697043811</v>
+      </c>
+      <c r="LY2">
+        <v>2.477591008188758</v>
+      </c>
+      <c r="LZ2">
+        <v>0.3557722533848009</v>
+      </c>
+      <c r="MA2">
+        <v>5.61721858619353</v>
+      </c>
+      <c r="MB2">
+        <v>1.516979577812833</v>
+      </c>
+      <c r="MC2">
+        <v>6.715432518678361</v>
+      </c>
+      <c r="MD2">
+        <v>0.4069018805897563</v>
+      </c>
+      <c r="ME2">
+        <v>0.4286146941964181</v>
+      </c>
+      <c r="MF2">
+        <v>26.35303729362899</v>
+      </c>
+      <c r="MG2">
+        <v>0.4649670860842943</v>
+      </c>
+      <c r="MH2">
+        <v>0.3491160920787239</v>
+      </c>
+      <c r="MI2">
+        <v>0.3363852018826308</v>
+      </c>
+      <c r="MJ2">
+        <v>0.3554883343538076</v>
+      </c>
+      <c r="MK2">
+        <v>0.5520680866908693</v>
+      </c>
+      <c r="ML2">
+        <v>0.4077521373002339</v>
+      </c>
+      <c r="MM2">
+        <v>0.3393521526585642</v>
+      </c>
+      <c r="MN2">
+        <v>0.3856560575750099</v>
+      </c>
+      <c r="MO2">
+        <v>2.198896383706235</v>
+      </c>
+      <c r="MP2">
+        <v>0.3430717905693846</v>
+      </c>
+      <c r="MQ2">
+        <v>0.345669434318671</v>
+      </c>
+      <c r="MR2">
+        <v>0.3446432747339432</v>
+      </c>
+      <c r="MS2">
+        <v>0.3382013607999829</v>
+      </c>
+      <c r="MT2">
+        <v>0.3650071308934095</v>
+      </c>
+      <c r="MU2">
+        <v>0.3512386527566078</v>
+      </c>
+      <c r="MV2">
+        <v>0.3578188527524151</v>
+      </c>
+      <c r="MW2">
+        <v>0.3891271064467707</v>
+      </c>
+      <c r="MX2">
+        <v>0.3434463964768304</v>
+      </c>
+      <c r="MY2">
+        <v>0.3389888941176459</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3997778333152355</v>
+      </c>
+      <c r="NA2">
+        <v>0.443567062370938</v>
+      </c>
+      <c r="NB2">
+        <v>11.1919288328657</v>
+      </c>
+      <c r="NC2">
+        <v>0.3435455061004966</v>
+      </c>
+      <c r="ND2">
+        <v>10.85677535873947</v>
+      </c>
+      <c r="NE2">
+        <v>0.3677614445840976</v>
+      </c>
+      <c r="NF2">
+        <v>52.64227653558739</v>
+      </c>
+      <c r="NG2">
+        <v>0.3366707920538757</v>
+      </c>
+      <c r="NH2">
+        <v>1.955865245865663</v>
+      </c>
+      <c r="NI2">
+        <v>0.3400796275296166</v>
+      </c>
+      <c r="NJ2">
+        <v>0.3382392042779711</v>
+      </c>
+      <c r="NK2">
+        <v>3.276587956601771</v>
+      </c>
+      <c r="NL2">
+        <v>0.3498768980430482</v>
+      </c>
+      <c r="NM2">
+        <v>0.3759194754290766</v>
+      </c>
+      <c r="NN2">
+        <v>24.48048475936601</v>
+      </c>
+      <c r="NO2">
+        <v>0.3398893937651307</v>
+      </c>
+      <c r="NP2">
+        <v>0.3472155619114419</v>
+      </c>
+      <c r="NQ2">
+        <v>0.3414705814194595</v>
+      </c>
+      <c r="NR2">
+        <v>3.793834562388728</v>
+      </c>
+      <c r="NS2">
+        <v>2.824776175712209</v>
+      </c>
+      <c r="NT2">
+        <v>1.516011311734159</v>
+      </c>
+      <c r="NU2">
+        <v>19.53857030013347</v>
+      </c>
+      <c r="NV2">
+        <v>8.711393908096531</v>
+      </c>
+      <c r="NW2">
+        <v>0.3656041489521435</v>
+      </c>
+      <c r="NX2">
+        <v>0.535319418899774</v>
+      </c>
+      <c r="NY2">
+        <v>8.928453718792843</v>
+      </c>
+      <c r="NZ2">
+        <v>0.3474114727246397</v>
+      </c>
+      <c r="OA2">
+        <v>0.3449644178787383</v>
+      </c>
+      <c r="OB2">
+        <v>4.31286965583455</v>
+      </c>
+      <c r="OC2">
+        <v>0.3659870626320636</v>
+      </c>
+      <c r="OD2">
+        <v>0.3676017126353915</v>
+      </c>
+      <c r="OE2">
+        <v>0.4211632233281198</v>
+      </c>
+      <c r="OF2">
+        <v>2.421649653140148</v>
+      </c>
+      <c r="OG2">
+        <v>1.617611196563099</v>
+      </c>
+      <c r="OH2">
+        <v>0.3981564081611603</v>
+      </c>
+      <c r="OI2">
+        <v>0.3625605670709287</v>
+      </c>
+      <c r="OJ2">
+        <v>0.3661937222665623</v>
+      </c>
+      <c r="OK2">
+        <v>1.995339372557795</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>0.3401112486333838</v>
+        <v>0.3388364139429719</v>
       </c>
       <c r="C3">
-        <v>243.1847459715065</v>
+        <v>0.3442040881107621</v>
       </c>
       <c r="D3">
-        <v>37.05632828753976</v>
+        <v>0.3411863625819677</v>
       </c>
       <c r="E3">
-        <v>0.350817862978946</v>
+        <v>0.3470680950216539</v>
       </c>
       <c r="F3">
-        <v>0.3499130874560006</v>
+        <v>0.8277117153950007</v>
       </c>
       <c r="G3">
-        <v>155.7978605905615</v>
+        <v>0.3366111031347899</v>
       </c>
       <c r="H3">
-        <v>231.3056325432082</v>
+        <v>0.3523784436928826</v>
       </c>
       <c r="I3">
-        <v>0.3416893843756312</v>
+        <v>0.3957074863848709</v>
       </c>
       <c r="J3">
-        <v>0.3518051814710995</v>
+        <v>0.3352836639910264</v>
       </c>
       <c r="K3">
-        <v>0.3342371660510726</v>
+        <v>0.3356161356185111</v>
       </c>
       <c r="L3">
-        <v>0.3516945314258448</v>
+        <v>0.3386019835360847</v>
       </c>
       <c r="M3">
-        <v>0.334437840293023</v>
+        <v>0.3364020432168453</v>
       </c>
       <c r="N3">
-        <v>0.3338564786682526</v>
+        <v>0.3369815494601078</v>
       </c>
       <c r="O3">
-        <v>5.012610908625543</v>
+        <v>0.3366305214020178</v>
       </c>
       <c r="P3">
-        <v>0.3521396741823984</v>
+        <v>0.3485301105008266</v>
       </c>
       <c r="Q3">
-        <v>0.3597494134897825</v>
+        <v>0.3357436843709541</v>
       </c>
       <c r="R3">
-        <v>110.2214749552331</v>
+        <v>0.3541429464479705</v>
       </c>
       <c r="S3">
-        <v>0.337371534023215</v>
+        <v>0.3396265426839584</v>
       </c>
       <c r="T3">
-        <v>0.3493513319450936</v>
+        <v>0.3403912832257224</v>
       </c>
       <c r="U3">
-        <v>14.58201569407955</v>
+        <v>0.4349854570928281</v>
       </c>
       <c r="V3">
-        <v>1038.932087041439</v>
+        <v>0.526773268556614</v>
       </c>
       <c r="W3">
-        <v>7.483493323590346</v>
+        <v>0.3355824772345117</v>
       </c>
       <c r="X3">
-        <v>2.719146509438555</v>
+        <v>0.3347471889405412</v>
       </c>
       <c r="Y3">
-        <v>141.0336004566126</v>
+        <v>0.9240879121305312</v>
       </c>
       <c r="Z3">
-        <v>17.20367897302197</v>
+        <v>3.483507350717563</v>
       </c>
       <c r="AA3">
-        <v>0.3351629224889357</v>
+        <v>0.3714573099546327</v>
       </c>
       <c r="AB3">
-        <v>2.581544880091015</v>
+        <v>0.357062515426703</v>
       </c>
       <c r="AC3">
-        <v>0.394738743398668</v>
+        <v>0.6215590835678697</v>
       </c>
       <c r="AD3">
-        <v>1.94146211709597</v>
+        <v>0.3620569398301312</v>
       </c>
       <c r="AE3">
-        <v>0.3731408937252396</v>
+        <v>0.3417379225956224</v>
       </c>
       <c r="AF3">
-        <v>0.3340306837868308</v>
+        <v>169.579373177213</v>
       </c>
       <c r="AG3">
-        <v>36.32338962486229</v>
+        <v>1.978086079579188</v>
       </c>
       <c r="AH3">
-        <v>23.65344280025368</v>
+        <v>27.40194501900858</v>
       </c>
       <c r="AI3">
-        <v>0.3670468705690834</v>
+        <v>0.3441007998379671</v>
       </c>
       <c r="AJ3">
-        <v>261.7876223618674</v>
+        <v>12.6842100440706</v>
       </c>
       <c r="AK3">
-        <v>87.32299906297828</v>
+        <v>3.954996992395525</v>
       </c>
       <c r="AL3">
-        <v>0.3743972630149916</v>
+        <v>0.3739598504080632</v>
       </c>
       <c r="AM3">
-        <v>588.6828873328097</v>
+        <v>0.3353199807154451</v>
       </c>
       <c r="AN3">
-        <v>0.3429742889790345</v>
+        <v>14.63859010567373</v>
       </c>
       <c r="AO3">
-        <v>0.3493134224524045</v>
+        <v>0.345278670867488</v>
       </c>
       <c r="AP3">
-        <v>275.3820299414065</v>
+        <v>0.3647940365116485</v>
       </c>
       <c r="AQ3">
-        <v>48.69758033436903</v>
+        <v>0.4155465594320673</v>
       </c>
       <c r="AR3">
-        <v>0.3343217046843052</v>
+        <v>0.3672654438446081</v>
       </c>
       <c r="AS3">
-        <v>0.3463438090919087</v>
+        <v>3.883824613050733</v>
       </c>
       <c r="AT3">
-        <v>0.3507118982137145</v>
+        <v>0.423656320594964</v>
       </c>
       <c r="AU3">
-        <v>0.3348154088572339</v>
+        <v>0.3552877943891383</v>
       </c>
       <c r="AV3">
-        <v>0.3344652472120047</v>
+        <v>0.3563827564521277</v>
       </c>
       <c r="AW3">
-        <v>1.711979498646033</v>
+        <v>0.3362724737756954</v>
       </c>
       <c r="AX3">
-        <v>28.46090447195848</v>
+        <v>0.3394821435709784</v>
       </c>
       <c r="AY3">
-        <v>43.93773511679659</v>
+        <v>0.336603780782213</v>
       </c>
       <c r="AZ3">
-        <v>0.3657270382933817</v>
+        <v>1.508296092512626</v>
       </c>
       <c r="BA3">
-        <v>0.3916768166206833</v>
+        <v>5.430622057293873</v>
       </c>
       <c r="BB3">
-        <v>0.3512739960014025</v>
+        <v>2.583975606207784</v>
       </c>
       <c r="BC3">
-        <v>0.3429521329881735</v>
+        <v>0.3403705157780117</v>
       </c>
       <c r="BD3">
-        <v>5.972515357171061</v>
+        <v>12.63300072134153</v>
       </c>
       <c r="BE3">
-        <v>0.353373084426916</v>
+        <v>0.3774606544376454</v>
       </c>
       <c r="BF3">
-        <v>0.3447665597601237</v>
+        <v>53.62859583366902</v>
       </c>
       <c r="BG3">
-        <v>27.28743984112899</v>
+        <v>0.3408234930301908</v>
       </c>
       <c r="BH3">
-        <v>99.25623966351121</v>
+        <v>47.36557977869921</v>
       </c>
       <c r="BI3">
-        <v>0.3352065028001073</v>
+        <v>0.3506913369983573</v>
       </c>
       <c r="BJ3">
-        <v>0.3625632881321746</v>
+        <v>0.3384639405368889</v>
       </c>
       <c r="BK3">
-        <v>0.3383544079458076</v>
+        <v>0.3395076071671904</v>
       </c>
       <c r="BL3">
-        <v>0.3362452084863297</v>
+        <v>25.07440348249071</v>
       </c>
       <c r="BM3">
-        <v>0.3361401959187182</v>
+        <v>17.54332439759182</v>
       </c>
       <c r="BN3">
-        <v>0.363465908394941</v>
+        <v>0.3604083012031478</v>
       </c>
       <c r="BO3">
-        <v>0.382355558617193</v>
+        <v>0.3366806485681704</v>
       </c>
       <c r="BP3">
-        <v>73.87715840069306</v>
+        <v>0.3390759540384675</v>
       </c>
       <c r="BQ3">
-        <v>38.29987985477681</v>
+        <v>0.3755053502114482</v>
       </c>
       <c r="BR3">
-        <v>0.3348421045211403</v>
+        <v>0.4502576664861163</v>
       </c>
       <c r="BS3">
-        <v>717.2462096099619</v>
+        <v>0.36783434376659</v>
       </c>
       <c r="BT3">
-        <v>0.3810896381211462</v>
+        <v>0.3431028966570983</v>
       </c>
       <c r="BU3">
-        <v>0.3574152857818935</v>
+        <v>0.336418076294756</v>
       </c>
       <c r="BV3">
-        <v>0.3347470707736244</v>
+        <v>0.3371733656839628</v>
       </c>
       <c r="BW3">
-        <v>0.3416417444527115</v>
+        <v>0.3525913326271097</v>
       </c>
       <c r="BX3">
-        <v>0.3440845005732242</v>
+        <v>0.3675996979811879</v>
       </c>
       <c r="BY3">
-        <v>0.3499378552303009</v>
+        <v>0.3405550641020657</v>
       </c>
       <c r="BZ3">
-        <v>904.7419989249674</v>
+        <v>0.4301837908125016</v>
       </c>
       <c r="CA3">
-        <v>241.2950928598769</v>
+        <v>0.3477143486938966</v>
       </c>
       <c r="CB3">
-        <v>138.7543992933965</v>
+        <v>0.3375700308258209</v>
       </c>
       <c r="CC3">
-        <v>0.3379189954791949</v>
+        <v>0.4589688493954147</v>
       </c>
       <c r="CD3">
-        <v>0.3551149218144053</v>
+        <v>0.3477404810551988</v>
       </c>
       <c r="CE3">
-        <v>231.8401598054492</v>
+        <v>0.3394917896177188</v>
       </c>
       <c r="CF3">
-        <v>0.3553454752238629</v>
+        <v>0.3353001998192425</v>
       </c>
       <c r="CG3">
-        <v>0.3342017329089644</v>
+        <v>0.3595875529692223</v>
       </c>
       <c r="CH3">
-        <v>100.684881897581</v>
+        <v>12.1120364293658</v>
       </c>
       <c r="CI3">
-        <v>0.3388057995962843</v>
+        <v>0.3468842121126303</v>
       </c>
       <c r="CJ3">
-        <v>0.4091651360897429</v>
+        <v>0.3495591339086169</v>
       </c>
       <c r="CK3">
-        <v>0.3339638593966975</v>
+        <v>0.3447007522281315</v>
       </c>
       <c r="CL3">
-        <v>0.3348560421531881</v>
+        <v>0.3434806253086662</v>
       </c>
       <c r="CM3">
-        <v>0.3336496547658633</v>
+        <v>0.3539488666372305</v>
       </c>
       <c r="CN3">
-        <v>0.4144544713359339</v>
+        <v>0.3425732913554687</v>
       </c>
       <c r="CO3">
-        <v>1.891372641902398</v>
+        <v>0.5194685047424772</v>
       </c>
       <c r="CP3">
-        <v>0.3340288701421428</v>
+        <v>0.3541498984599041</v>
       </c>
       <c r="CQ3">
-        <v>0.3535376017232078</v>
+        <v>0.3392229675559134</v>
       </c>
       <c r="CR3">
-        <v>0.3610350679156109</v>
+        <v>0.3354958612477584</v>
       </c>
       <c r="CS3">
-        <v>0.3346092587978015</v>
+        <v>0.7133408038419202</v>
       </c>
       <c r="CT3">
-        <v>0.3491372775166971</v>
+        <v>0.336166742639663</v>
       </c>
       <c r="CU3">
-        <v>0.3775814465661451</v>
+        <v>0.3918072647458997</v>
       </c>
       <c r="CV3">
-        <v>0.3338456558123339</v>
+        <v>0.4348471484415991</v>
       </c>
       <c r="CW3">
-        <v>16.69075160252644</v>
+        <v>0.3360131735571015</v>
       </c>
       <c r="CX3">
-        <v>0.3383274924604125</v>
+        <v>0.3356941211303711</v>
       </c>
       <c r="CY3">
-        <v>0.3351718355116769</v>
+        <v>0.3448945908545015</v>
       </c>
       <c r="CZ3">
-        <v>0.3350144756779993</v>
+        <v>0.3462986815716859</v>
       </c>
       <c r="DA3">
-        <v>0.3743054809761799</v>
+        <v>0.3382597527933058</v>
       </c>
       <c r="DB3">
-        <v>0.3411853130447673</v>
+        <v>0.3884456128054584</v>
       </c>
       <c r="DC3">
-        <v>352.4031193255584</v>
+        <v>0.4232854399868916</v>
       </c>
       <c r="DD3">
-        <v>23.53978778238709</v>
+        <v>0.3443095363878303</v>
       </c>
       <c r="DE3">
-        <v>0.3610833609038342</v>
+        <v>7.766862818806239</v>
       </c>
       <c r="DF3">
-        <v>3.437443212779495</v>
+        <v>0.337971969180916</v>
       </c>
       <c r="DG3">
-        <v>0.4303321147899911</v>
+        <v>0.3362735450307669</v>
       </c>
       <c r="DH3">
-        <v>43.81368049328037</v>
+        <v>0.3466895405091086</v>
       </c>
       <c r="DI3">
-        <v>265.7046568420728</v>
+        <v>0.3414537534015764</v>
       </c>
       <c r="DJ3">
-        <v>246.246151822947</v>
+        <v>0.3350659575781573</v>
       </c>
       <c r="DK3">
-        <v>0.3381851818229347</v>
+        <v>0.3355860974815055</v>
       </c>
       <c r="DL3">
-        <v>0.5646124654397561</v>
+        <v>0.3376090243969212</v>
       </c>
       <c r="DM3">
-        <v>25.75735664855668</v>
+        <v>0.3514946902575716</v>
       </c>
       <c r="DN3">
-        <v>202.8257375012465</v>
+        <v>56.32442690315993</v>
       </c>
       <c r="DO3">
-        <v>6.04916385543043</v>
+        <v>0.3425775010980969</v>
       </c>
       <c r="DP3">
-        <v>0.3754506090905747</v>
+        <v>0.3401667904465763</v>
       </c>
       <c r="DQ3">
-        <v>4050.497291075902</v>
+        <v>0.3519807496868612</v>
       </c>
       <c r="DR3">
-        <v>0.3978187189887374</v>
+        <v>0.3415159414389433</v>
       </c>
       <c r="DS3">
-        <v>55.24889431346844</v>
+        <v>0.3352827948994782</v>
       </c>
       <c r="DT3">
-        <v>59.14957646418681</v>
+        <v>4.181629138249953</v>
       </c>
       <c r="DU3">
-        <v>0.3349382389089754</v>
+        <v>0.3382640031501768</v>
       </c>
       <c r="DV3">
-        <v>0.3859302926929682</v>
+        <v>57.51228694372985</v>
       </c>
       <c r="DW3">
-        <v>0.3426966859097785</v>
+        <v>0.3401608060863167</v>
       </c>
       <c r="DX3">
-        <v>0.3467264426084944</v>
+        <v>0.3351619112985136</v>
       </c>
       <c r="DY3">
-        <v>126.2108066579235</v>
+        <v>0.3363377977018336</v>
       </c>
       <c r="DZ3">
-        <v>198.9595757285115</v>
+        <v>0.3456189469946284</v>
       </c>
       <c r="EA3">
-        <v>0.3463122463910885</v>
+        <v>0.3367867455748396</v>
       </c>
       <c r="EB3">
-        <v>191.54707493256</v>
+        <v>0.3465050411487176</v>
       </c>
       <c r="EC3">
-        <v>0.3843303553212536</v>
+        <v>0.4334439858312139</v>
       </c>
       <c r="ED3">
-        <v>0.339377724236685</v>
+        <v>0.3381934114107263</v>
       </c>
       <c r="EE3">
-        <v>0.3507684672378633</v>
+        <v>0.3602640710102844</v>
       </c>
       <c r="EF3">
-        <v>0.338519810641461</v>
+        <v>0.3378299655551731</v>
       </c>
       <c r="EG3">
-        <v>0.3365907512521905</v>
+        <v>0.4526380394443035</v>
       </c>
       <c r="EH3">
-        <v>0.4083388906300669</v>
+        <v>0.3350880415832007</v>
       </c>
       <c r="EI3">
-        <v>0.3483304979811211</v>
+        <v>0.3423500361870013</v>
       </c>
       <c r="EJ3">
-        <v>0.4245930868309735</v>
+        <v>0.3369778761253305</v>
       </c>
       <c r="EK3">
-        <v>0.3366004330978195</v>
+        <v>0.3866865804683524</v>
       </c>
       <c r="EL3">
-        <v>319.2879387702252</v>
+        <v>0.3500128592004916</v>
       </c>
       <c r="EM3">
-        <v>98.33093322389003</v>
+        <v>0.3353507152572007</v>
       </c>
       <c r="EN3">
-        <v>81.36375287779347</v>
+        <v>12.43953018521821</v>
       </c>
       <c r="EO3">
-        <v>32.33331463446907</v>
+        <v>0.4130885415331664</v>
       </c>
       <c r="EP3">
-        <v>0.3342199935605144</v>
+        <v>0.341734413060461</v>
       </c>
       <c r="EQ3">
-        <v>0.3379277127564596</v>
+        <v>0.3382895652676176</v>
       </c>
       <c r="ER3">
-        <v>1.37137485616713</v>
+        <v>0.3393722266110458</v>
       </c>
       <c r="ES3">
-        <v>0.3535917144738463</v>
+        <v>0.3381466056446518</v>
       </c>
       <c r="ET3">
-        <v>0.3368718819369151</v>
+        <v>0.3397540673742828</v>
       </c>
       <c r="EU3">
-        <v>261.3092101250534</v>
+        <v>0.3369645419006903</v>
       </c>
       <c r="EV3">
-        <v>50.3104320344347</v>
+        <v>0.3354130105917189</v>
       </c>
       <c r="EW3">
-        <v>1375.83304239509</v>
+        <v>0.3550016471879786</v>
       </c>
       <c r="EX3">
-        <v>8278.539870055076</v>
+        <v>0.3368885059416976</v>
       </c>
       <c r="EY3">
-        <v>1885.39641588124</v>
+        <v>0.3410438745505729</v>
       </c>
       <c r="EZ3">
-        <v>56.33935656393545</v>
+        <v>0.3423349740843586</v>
       </c>
       <c r="FA3">
-        <v>0.4087596593275445</v>
+        <v>0.3394082457980859</v>
       </c>
       <c r="FB3">
-        <v>54.3640660426938</v>
+        <v>0.3351125488435429</v>
       </c>
       <c r="FC3">
-        <v>0.3369193984809407</v>
+        <v>0.3746858011223509</v>
       </c>
       <c r="FD3">
-        <v>0.334504666194235</v>
+        <v>0.3857753797695525</v>
       </c>
       <c r="FE3">
-        <v>105.7166450801321</v>
+        <v>0.3377863880287855</v>
       </c>
       <c r="FF3">
-        <v>0.372378135368592</v>
+        <v>0.3362464734403032</v>
       </c>
       <c r="FG3">
-        <v>0.3931216326114162</v>
+        <v>0.3720964872758113</v>
       </c>
       <c r="FH3">
-        <v>0.4939183945967345</v>
+        <v>2.263425219192785</v>
       </c>
       <c r="FI3">
-        <v>0.3672970148610248</v>
+        <v>66.92129577324567</v>
       </c>
       <c r="FJ3">
-        <v>0.3521167313130063</v>
+        <v>52.54649503603312</v>
       </c>
       <c r="FK3">
-        <v>0.3598636184863082</v>
+        <v>0.3379840284081301</v>
       </c>
       <c r="FL3">
-        <v>0.3335784804215327</v>
+        <v>0.3440962662271276</v>
       </c>
       <c r="FM3">
-        <v>0.3532964028402706</v>
+        <v>0.3353911551081252</v>
       </c>
       <c r="FN3">
-        <v>0.3356133631163914</v>
+        <v>0.3350154050465242</v>
       </c>
       <c r="FO3">
-        <v>143.2188350571033</v>
+        <v>0.3356158055576506</v>
       </c>
       <c r="FP3">
-        <v>0.335990934446081</v>
+        <v>0.3743032325551587</v>
       </c>
       <c r="FQ3">
-        <v>87.32963528352289</v>
+        <v>66.37816708730111</v>
       </c>
       <c r="FR3">
-        <v>3.380614774159632</v>
+        <v>0.3439565073613111</v>
       </c>
       <c r="FS3">
-        <v>0.3359378977415899</v>
+        <v>0.3518859353552725</v>
       </c>
       <c r="FT3">
-        <v>0.3531973137085839</v>
+        <v>77.34524012978002</v>
       </c>
       <c r="FU3">
-        <v>0.3607797128738064</v>
+        <v>3.84028990524583</v>
       </c>
       <c r="FV3">
-        <v>0.3379926750577572</v>
+        <v>0.3367297759400261</v>
       </c>
       <c r="FW3">
-        <v>5.265062018526726</v>
+        <v>0.3390131919254986</v>
       </c>
       <c r="FX3">
-        <v>8.565057597934086</v>
+        <v>2.466147889281699</v>
       </c>
       <c r="FY3">
-        <v>52.04780945162952</v>
+        <v>72.81234666256107</v>
       </c>
       <c r="FZ3">
-        <v>15.50547670152316</v>
+        <v>22.8093742660871</v>
       </c>
       <c r="GA3">
-        <v>18.19004774397721</v>
+        <v>0.3677619173611543</v>
       </c>
       <c r="GB3">
-        <v>0.3553636303945708</v>
+        <v>2.98048364638924</v>
       </c>
       <c r="GC3">
-        <v>90.17160658825246</v>
+        <v>0.3348759476743655</v>
       </c>
       <c r="GD3">
-        <v>0.3367053451757558</v>
+        <v>0.3366217904845812</v>
       </c>
       <c r="GE3">
-        <v>94.24458061404599</v>
+        <v>0.3488724453369367</v>
       </c>
       <c r="GF3">
-        <v>0.3554244307040443</v>
+        <v>0.3706613435596007</v>
       </c>
       <c r="GG3">
-        <v>12.08046201359956</v>
+        <v>0.3649419489990142</v>
       </c>
       <c r="GH3">
-        <v>0.3727895553024037</v>
+        <v>0.3357193626570516</v>
       </c>
       <c r="GI3">
-        <v>0.3735252945878191</v>
+        <v>0.337173492580423</v>
       </c>
       <c r="GJ3">
-        <v>0.3354436231836448</v>
+        <v>0.3384114031268114</v>
       </c>
       <c r="GK3">
-        <v>152.9442254526376</v>
+        <v>0.3630761765459736</v>
       </c>
       <c r="GL3">
-        <v>12.65273148540072</v>
+        <v>75.23976839953764</v>
       </c>
       <c r="GM3">
-        <v>52.33049365239231</v>
+        <v>0.4013587179440157</v>
       </c>
       <c r="GN3">
-        <v>0.3464787334633578</v>
+        <v>0.3786431950733075</v>
       </c>
       <c r="GO3">
-        <v>5.415897309993214</v>
+        <v>0.3345975926465423</v>
       </c>
       <c r="GP3">
-        <v>0.364816069997683</v>
+        <v>0.3470693344787433</v>
       </c>
       <c r="GQ3">
-        <v>0.3337359820817009</v>
+        <v>0.4263600833072663</v>
       </c>
       <c r="GR3">
-        <v>0.3511990252265011</v>
+        <v>0.3412452755422201</v>
       </c>
       <c r="GS3">
-        <v>7.919720171142937</v>
+        <v>0.3397277949429559</v>
+      </c>
+      <c r="GT3">
+        <v>0.3376739119809296</v>
+      </c>
+      <c r="GU3">
+        <v>2.511246074101536</v>
+      </c>
+      <c r="GV3">
+        <v>56.87739239877248</v>
+      </c>
+      <c r="GW3">
+        <v>0.3389440393014899</v>
+      </c>
+      <c r="GX3">
+        <v>0.3530143188159238</v>
+      </c>
+      <c r="GY3">
+        <v>0.343097229766225</v>
+      </c>
+      <c r="GZ3">
+        <v>5.769754800474728</v>
+      </c>
+      <c r="HA3">
+        <v>0.3352717452165394</v>
+      </c>
+      <c r="HB3">
+        <v>0.3548808156350767</v>
+      </c>
+      <c r="HC3">
+        <v>0.335224379266912</v>
+      </c>
+      <c r="HD3">
+        <v>2.0997449351033</v>
+      </c>
+      <c r="HE3">
+        <v>0.3392556430346308</v>
+      </c>
+      <c r="HF3">
+        <v>0.3555849949971188</v>
+      </c>
+      <c r="HG3">
+        <v>0.3354017095829951</v>
+      </c>
+      <c r="HH3">
+        <v>0.3364068836143071</v>
+      </c>
+      <c r="HI3">
+        <v>0.3365608708038527</v>
+      </c>
+      <c r="HJ3">
+        <v>0.3431388606471732</v>
+      </c>
+      <c r="HK3">
+        <v>0.3788672642220264</v>
+      </c>
+      <c r="HL3">
+        <v>0.3379709187759199</v>
+      </c>
+      <c r="HM3">
+        <v>28.67390978039166</v>
+      </c>
+      <c r="HN3">
+        <v>0.3575881180560035</v>
+      </c>
+      <c r="HO3">
+        <v>1.837432783803124</v>
+      </c>
+      <c r="HP3">
+        <v>0.399958406090514</v>
+      </c>
+      <c r="HQ3">
+        <v>20.62682845868282</v>
+      </c>
+      <c r="HR3">
+        <v>0.3466238592302994</v>
+      </c>
+      <c r="HS3">
+        <v>0.3454590908051978</v>
+      </c>
+      <c r="HT3">
+        <v>0.3599665198837093</v>
+      </c>
+      <c r="HU3">
+        <v>2.684441938040253</v>
+      </c>
+      <c r="HV3">
+        <v>0.335396340627383</v>
+      </c>
+      <c r="HW3">
+        <v>66.08322681749129</v>
+      </c>
+      <c r="HX3">
+        <v>2.015683163400563</v>
+      </c>
+      <c r="HY3">
+        <v>0.4884890040496402</v>
+      </c>
+      <c r="HZ3">
+        <v>0.5118942796241465</v>
+      </c>
+      <c r="IA3">
+        <v>39.287070241888</v>
+      </c>
+      <c r="IB3">
+        <v>0.3640601490078454</v>
+      </c>
+      <c r="IC3">
+        <v>0.3416230073374774</v>
+      </c>
+      <c r="ID3">
+        <v>0.3466064543160391</v>
+      </c>
+      <c r="IE3">
+        <v>0.3615798289083268</v>
+      </c>
+      <c r="IF3">
+        <v>0.4271080806307989</v>
+      </c>
+      <c r="IG3">
+        <v>0.3392508756039094</v>
+      </c>
+      <c r="IH3">
+        <v>0.338836750042399</v>
+      </c>
+      <c r="II3">
+        <v>0.3447286351022392</v>
+      </c>
+      <c r="IJ3">
+        <v>0.3557387713095067</v>
+      </c>
+      <c r="IK3">
+        <v>0.3378399976108385</v>
+      </c>
+      <c r="IL3">
+        <v>1.938130187719329</v>
+      </c>
+      <c r="IM3">
+        <v>0.3364660612287235</v>
+      </c>
+      <c r="IN3">
+        <v>196.1820323958264</v>
+      </c>
+      <c r="IO3">
+        <v>0.3390055126115416</v>
+      </c>
+      <c r="IP3">
+        <v>0.3673212757054038</v>
+      </c>
+      <c r="IQ3">
+        <v>0.347782560590867</v>
+      </c>
+      <c r="IR3">
+        <v>0.3565702830030608</v>
+      </c>
+      <c r="IS3">
+        <v>0.3528287835846021</v>
+      </c>
+      <c r="IT3">
+        <v>0.3685523886909411</v>
+      </c>
+      <c r="IU3">
+        <v>0.3563994259619035</v>
+      </c>
+      <c r="IV3">
+        <v>0.3659335286013819</v>
+      </c>
+      <c r="IW3">
+        <v>0.3496627939171688</v>
+      </c>
+      <c r="IX3">
+        <v>0.3350239203746382</v>
+      </c>
+      <c r="IY3">
+        <v>0.3867583502693788</v>
+      </c>
+      <c r="IZ3">
+        <v>0.3355130367773614</v>
+      </c>
+      <c r="JA3">
+        <v>0.337851952304611</v>
+      </c>
+      <c r="JB3">
+        <v>11.08057088557443</v>
+      </c>
+      <c r="JC3">
+        <v>0.4929599128805562</v>
+      </c>
+      <c r="JD3">
+        <v>0.3359105467852964</v>
+      </c>
+      <c r="JE3">
+        <v>0.3351758839118798</v>
+      </c>
+      <c r="JF3">
+        <v>2.003036275605029</v>
+      </c>
+      <c r="JG3">
+        <v>0.4095372412844849</v>
+      </c>
+      <c r="JH3">
+        <v>0.3380176192553916</v>
+      </c>
+      <c r="JI3">
+        <v>0.337495371187721</v>
+      </c>
+      <c r="JJ3">
+        <v>12.51328191221561</v>
+      </c>
+      <c r="JK3">
+        <v>62.80313282488039</v>
+      </c>
+      <c r="JL3">
+        <v>0.3491884268598305</v>
+      </c>
+      <c r="JM3">
+        <v>0.3866342251723289</v>
+      </c>
+      <c r="JN3">
+        <v>3.322808844200176</v>
+      </c>
+      <c r="JO3">
+        <v>0.3647054431557525</v>
+      </c>
+      <c r="JP3">
+        <v>0.479978009310675</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3416832944635218</v>
+      </c>
+      <c r="JR3">
+        <v>0.3565859889692405</v>
+      </c>
+      <c r="JS3">
+        <v>0.4010125620622892</v>
+      </c>
+      <c r="JT3">
+        <v>0.3471891689525098</v>
+      </c>
+      <c r="JU3">
+        <v>0.3665887440461963</v>
+      </c>
+      <c r="JV3">
+        <v>0.3383323291511739</v>
+      </c>
+      <c r="JW3">
+        <v>0.5961805030434582</v>
+      </c>
+      <c r="JX3">
+        <v>0.8550257648653021</v>
+      </c>
+      <c r="JY3">
+        <v>0.3536673896763241</v>
+      </c>
+      <c r="JZ3">
+        <v>0.3824773589765252</v>
+      </c>
+      <c r="KA3">
+        <v>9.194072149490649</v>
+      </c>
+      <c r="KB3">
+        <v>0.4645307545661981</v>
+      </c>
+      <c r="KC3">
+        <v>0.5975685831336968</v>
+      </c>
+      <c r="KD3">
+        <v>60.49467932518174</v>
+      </c>
+      <c r="KE3">
+        <v>0.8330219157704878</v>
+      </c>
+      <c r="KF3">
+        <v>7.547414622243145</v>
+      </c>
+      <c r="KG3">
+        <v>0.3493626373288137</v>
+      </c>
+      <c r="KH3">
+        <v>0.4893272732805979</v>
+      </c>
+      <c r="KI3">
+        <v>0.3598682355693842</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3515025958013223</v>
+      </c>
+      <c r="KK3">
+        <v>28.96766738914522</v>
+      </c>
+      <c r="KL3">
+        <v>0.3531027878650014</v>
+      </c>
+      <c r="KM3">
+        <v>0.3377015236574878</v>
+      </c>
+      <c r="KN3">
+        <v>133.7144531517315</v>
+      </c>
+      <c r="KO3">
+        <v>0.3580229521536009</v>
+      </c>
+      <c r="KP3">
+        <v>0.3367800989098009</v>
+      </c>
+      <c r="KQ3">
+        <v>0.6135791993809671</v>
+      </c>
+      <c r="KR3">
+        <v>0.3417328875409078</v>
+      </c>
+      <c r="KS3">
+        <v>1.116094082206699</v>
+      </c>
+      <c r="KT3">
+        <v>17.00700512849559</v>
+      </c>
+      <c r="KU3">
+        <v>0.3580898111325158</v>
+      </c>
+      <c r="KV3">
+        <v>0.3582489660910044</v>
+      </c>
+      <c r="KW3">
+        <v>0.3356745652063466</v>
+      </c>
+      <c r="KX3">
+        <v>0.3456020771484076</v>
+      </c>
+      <c r="KY3">
+        <v>0.359961364538201</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3409720707082843</v>
+      </c>
+      <c r="LA3">
+        <v>0.3387756043311606</v>
+      </c>
+      <c r="LB3">
+        <v>0.3456059217104589</v>
+      </c>
+      <c r="LC3">
+        <v>0.4813269001430793</v>
+      </c>
+      <c r="LD3">
+        <v>0.3618640057675013</v>
+      </c>
+      <c r="LE3">
+        <v>0.337677699928353</v>
+      </c>
+      <c r="LF3">
+        <v>9.919775414112108</v>
+      </c>
+      <c r="LG3">
+        <v>0.3666141413695976</v>
+      </c>
+      <c r="LH3">
+        <v>0.3844691258679106</v>
+      </c>
+      <c r="LI3">
+        <v>1.513905028196555</v>
+      </c>
+      <c r="LJ3">
+        <v>0.3429126363851838</v>
+      </c>
+      <c r="LK3">
+        <v>0.3377041357931982</v>
+      </c>
+      <c r="LL3">
+        <v>0.5790725266817843</v>
+      </c>
+      <c r="LM3">
+        <v>0.3355702812218043</v>
+      </c>
+      <c r="LN3">
+        <v>114.2898586514103</v>
+      </c>
+      <c r="LO3">
+        <v>10.23400967173757</v>
+      </c>
+      <c r="LP3">
+        <v>15.36347001792368</v>
+      </c>
+      <c r="LQ3">
+        <v>0.3356884647738791</v>
+      </c>
+      <c r="LR3">
+        <v>0.4298534692157534</v>
+      </c>
+      <c r="LS3">
+        <v>0.3595633825410579</v>
+      </c>
+      <c r="LT3">
+        <v>0.3360519776355264</v>
+      </c>
+      <c r="LU3">
+        <v>0.3724715451479483</v>
+      </c>
+      <c r="LV3">
+        <v>0.4232966575687396</v>
+      </c>
+      <c r="LW3">
+        <v>0.3503544919975837</v>
+      </c>
+      <c r="LX3">
+        <v>0.33706565255514</v>
+      </c>
+      <c r="LY3">
+        <v>0.3370573541720944</v>
+      </c>
+      <c r="LZ3">
+        <v>52.89041524700747</v>
+      </c>
+      <c r="MA3">
+        <v>0.4192793372136771</v>
+      </c>
+      <c r="MB3">
+        <v>0.3655763853421202</v>
+      </c>
+      <c r="MC3">
+        <v>0.4235372305325965</v>
+      </c>
+      <c r="MD3">
+        <v>0.3864046117534192</v>
+      </c>
+      <c r="ME3">
+        <v>24.69030958196212</v>
+      </c>
+      <c r="MF3">
+        <v>10.74961456189652</v>
+      </c>
+      <c r="MG3">
+        <v>0.3482878903325192</v>
+      </c>
+      <c r="MH3">
+        <v>0.3410514456085508</v>
+      </c>
+      <c r="MI3">
+        <v>0.3354561816849533</v>
+      </c>
+      <c r="MJ3">
+        <v>0.355425804487512</v>
+      </c>
+      <c r="MK3">
+        <v>0.3532273943119587</v>
+      </c>
+      <c r="ML3">
+        <v>0.3704585705556919</v>
+      </c>
+      <c r="MM3">
+        <v>0.3645202585012815</v>
+      </c>
+      <c r="MN3">
+        <v>0.3732800497821053</v>
+      </c>
+      <c r="MO3">
+        <v>7.089857539211759</v>
+      </c>
+      <c r="MP3">
+        <v>0.3413236908394282</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3397487025381787</v>
+      </c>
+      <c r="MR3">
+        <v>0.3642000037285174</v>
+      </c>
+      <c r="MS3">
+        <v>0.3375961519622342</v>
+      </c>
+      <c r="MT3">
+        <v>0.3371653989562825</v>
+      </c>
+      <c r="MU3">
+        <v>0.7167208885147918</v>
+      </c>
+      <c r="MV3">
+        <v>0.3884113644652331</v>
+      </c>
+      <c r="MW3">
+        <v>0.3474238824010082</v>
+      </c>
+      <c r="MX3">
+        <v>0.3366070149282273</v>
+      </c>
+      <c r="MY3">
+        <v>0.3412379307480907</v>
+      </c>
+      <c r="MZ3">
+        <v>0.4368405272599722</v>
+      </c>
+      <c r="NA3">
+        <v>1.856905891639336</v>
+      </c>
+      <c r="NB3">
+        <v>1.702038220665578</v>
+      </c>
+      <c r="NC3">
+        <v>0.3534977257455779</v>
+      </c>
+      <c r="ND3">
+        <v>1.040728613027886</v>
+      </c>
+      <c r="NE3">
+        <v>0.3606881178222057</v>
+      </c>
+      <c r="NF3">
+        <v>0.3648371923798849</v>
+      </c>
+      <c r="NG3">
+        <v>0.3363267609610344</v>
+      </c>
+      <c r="NH3">
+        <v>0.3596222262794542</v>
+      </c>
+      <c r="NI3">
+        <v>0.3418498717285683</v>
+      </c>
+      <c r="NJ3">
+        <v>0.3503060942720962</v>
+      </c>
+      <c r="NK3">
+        <v>0.3896504063387494</v>
+      </c>
+      <c r="NL3">
+        <v>2.044367168194246</v>
+      </c>
+      <c r="NM3">
+        <v>8.985556537525364</v>
+      </c>
+      <c r="NN3">
+        <v>1.967763136194292</v>
+      </c>
+      <c r="NO3">
+        <v>0.3395539368669331</v>
+      </c>
+      <c r="NP3">
+        <v>0.3678961381074757</v>
+      </c>
+      <c r="NQ3">
+        <v>0.3416172196795425</v>
+      </c>
+      <c r="NR3">
+        <v>0.3490408475859</v>
+      </c>
+      <c r="NS3">
+        <v>0.3721176820796002</v>
+      </c>
+      <c r="NT3">
+        <v>0.3414859307918582</v>
+      </c>
+      <c r="NU3">
+        <v>27.10477656852033</v>
+      </c>
+      <c r="NV3">
+        <v>5.431758574921083</v>
+      </c>
+      <c r="NW3">
+        <v>41.44734796574433</v>
+      </c>
+      <c r="NX3">
+        <v>0.4462445212074786</v>
+      </c>
+      <c r="NY3">
+        <v>4.637195584887147</v>
+      </c>
+      <c r="NZ3">
+        <v>0.3363828211956509</v>
+      </c>
+      <c r="OA3">
+        <v>0.3729742363461676</v>
+      </c>
+      <c r="OB3">
+        <v>0.350985531686853</v>
+      </c>
+      <c r="OC3">
+        <v>0.3972951088640452</v>
+      </c>
+      <c r="OD3">
+        <v>13.95891877942169</v>
+      </c>
+      <c r="OE3">
+        <v>0.3419982389617282</v>
+      </c>
+      <c r="OF3">
+        <v>0.3375192515018915</v>
+      </c>
+      <c r="OG3">
+        <v>0.336504412772626</v>
+      </c>
+      <c r="OH3">
+        <v>0.3476606553059807</v>
+      </c>
+      <c r="OI3">
+        <v>0.3514004466824536</v>
+      </c>
+      <c r="OJ3">
+        <v>0.4018409611060013</v>
+      </c>
+      <c r="OK3">
+        <v>0.3578518392812622</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>413.3186155100644</v>
+        <v>0.3481653797480448</v>
       </c>
       <c r="C4">
-        <v>0.4084231984752749</v>
+        <v>49.74369783622799</v>
       </c>
       <c r="D4">
-        <v>1781.562861275019</v>
+        <v>0.3809040606986877</v>
       </c>
       <c r="E4">
-        <v>107.2807579534978</v>
+        <v>0.3359386304643331</v>
       </c>
       <c r="F4">
-        <v>44.62004264774614</v>
+        <v>13.61616259459068</v>
       </c>
       <c r="G4">
-        <v>157.1437277449693</v>
+        <v>0.3563096349847357</v>
       </c>
       <c r="H4">
-        <v>0.345835985647072</v>
+        <v>164.8249148325861</v>
       </c>
       <c r="I4">
-        <v>368.3179303496827</v>
+        <v>20.69758719528429</v>
       </c>
       <c r="J4">
-        <v>958.3030587932838</v>
+        <v>2.291578351631627</v>
       </c>
       <c r="K4">
-        <v>37.32722340338726</v>
+        <v>11.22294917776851</v>
       </c>
       <c r="L4">
-        <v>117.0959403386379</v>
+        <v>0.3418214326362098</v>
       </c>
       <c r="M4">
-        <v>126.3248218912127</v>
+        <v>18.5330244271253</v>
       </c>
       <c r="N4">
-        <v>31.32820552947861</v>
+        <v>0.3428940495251089</v>
       </c>
       <c r="O4">
-        <v>240.5764700368656</v>
+        <v>41.53919767884018</v>
       </c>
       <c r="P4">
-        <v>63.43114310627869</v>
+        <v>104.9353902007862</v>
       </c>
       <c r="Q4">
-        <v>79.7660362493345</v>
+        <v>4.76763373926948</v>
       </c>
       <c r="R4">
-        <v>167.9373567754903</v>
+        <v>12.76888861460232</v>
       </c>
       <c r="S4">
-        <v>10.62463383409438</v>
+        <v>9.505341164069172</v>
       </c>
       <c r="T4">
-        <v>88.29038297053013</v>
+        <v>5.96344317935436</v>
       </c>
       <c r="U4">
-        <v>912.0599277980449</v>
+        <v>29.87569365913558</v>
       </c>
       <c r="V4">
-        <v>0.3395621865280267</v>
+        <v>11.25862845335483</v>
       </c>
       <c r="W4">
-        <v>154.2731018746624</v>
+        <v>22.39982953095448</v>
       </c>
       <c r="X4">
-        <v>119.0389736089449</v>
+        <v>5.112494516897083</v>
       </c>
       <c r="Y4">
-        <v>108.1028217219719</v>
+        <v>48.07689178058164</v>
       </c>
       <c r="Z4">
-        <v>68.04333777771346</v>
+        <v>7.567556766895224</v>
       </c>
       <c r="AA4">
-        <v>124.3140232960379</v>
+        <v>70.48079901660873</v>
       </c>
       <c r="AB4">
-        <v>299.484723164011</v>
+        <v>28.16750938240845</v>
       </c>
       <c r="AC4">
-        <v>53.59665127111752</v>
+        <v>6.833526571959389</v>
       </c>
       <c r="AD4">
-        <v>215.6898052865032</v>
+        <v>0.3603872464391663</v>
       </c>
       <c r="AE4">
-        <v>98.66248675452813</v>
+        <v>0.3556892345692074</v>
       </c>
       <c r="AF4">
-        <v>29.29276313393192</v>
+        <v>0.3756908543090692</v>
       </c>
       <c r="AG4">
-        <v>0.334555353739219</v>
+        <v>15.9093431921996</v>
       </c>
       <c r="AH4">
-        <v>121.1991176925052</v>
+        <v>127.1212070440036</v>
       </c>
       <c r="AI4">
-        <v>329.2759523119901</v>
+        <v>79.10737883891282</v>
       </c>
       <c r="AJ4">
-        <v>0.3938260564753355</v>
+        <v>0.3469523518139194</v>
       </c>
       <c r="AK4">
-        <v>0.3337060611235271</v>
+        <v>39.47972880713747</v>
       </c>
       <c r="AL4">
-        <v>89.28281529983327</v>
+        <v>18.90067782587937</v>
       </c>
       <c r="AM4">
-        <v>1885.472514834428</v>
+        <v>17.19205452901797</v>
       </c>
       <c r="AN4">
-        <v>79.28132721401244</v>
+        <v>61.98709321748986</v>
       </c>
       <c r="AO4">
-        <v>102.3129917766583</v>
+        <v>6.031839986790929</v>
       </c>
       <c r="AP4">
-        <v>0.4141557819899898</v>
+        <v>0.3505430475942778</v>
       </c>
       <c r="AQ4">
-        <v>174.9071073903729</v>
+        <v>0.3423502771589793</v>
       </c>
       <c r="AR4">
-        <v>90.32136325846419</v>
+        <v>14.79550099417215</v>
       </c>
       <c r="AS4">
-        <v>76.30249463063548</v>
+        <v>50.99429940653994</v>
       </c>
       <c r="AT4">
-        <v>574.3097542853126</v>
+        <v>9.34621541733431</v>
       </c>
       <c r="AU4">
-        <v>55.32347331628135</v>
+        <v>33.30922753011629</v>
       </c>
       <c r="AV4">
-        <v>42.31751311363286</v>
+        <v>0.3359831418805955</v>
       </c>
       <c r="AW4">
-        <v>165.2944891452301</v>
+        <v>6.839084758607758</v>
       </c>
       <c r="AX4">
-        <v>489.6541689965268</v>
+        <v>0.3338425049363698</v>
       </c>
       <c r="AY4">
-        <v>89.65190597052847</v>
+        <v>0.3408559580597388</v>
       </c>
       <c r="AZ4">
-        <v>230.2363736144167</v>
+        <v>12.95332374138155</v>
       </c>
       <c r="BA4">
-        <v>130.2774790515425</v>
+        <v>27.76380015553914</v>
       </c>
       <c r="BB4">
-        <v>15.78575115275</v>
+        <v>37.37741277951451</v>
       </c>
       <c r="BC4">
-        <v>58.30382371993293</v>
+        <v>10.29238965398223</v>
       </c>
       <c r="BD4">
-        <v>219.2457474215425</v>
+        <v>0.3570518796064407</v>
       </c>
       <c r="BE4">
-        <v>154.0638307069096</v>
+        <v>0.3400699078816531</v>
       </c>
       <c r="BF4">
-        <v>48.50272551115384</v>
+        <v>0.3750164725593</v>
       </c>
       <c r="BG4">
-        <v>131.0551700498777</v>
+        <v>12.10634529206212</v>
       </c>
       <c r="BH4">
-        <v>140.5433199910958</v>
+        <v>0.3397354656101337</v>
       </c>
       <c r="BI4">
-        <v>43.32478502989138</v>
+        <v>154.5491703636015</v>
       </c>
       <c r="BJ4">
-        <v>42.78154993926616</v>
+        <v>14.09831791313836</v>
       </c>
       <c r="BK4">
-        <v>57.30875549116357</v>
+        <v>14.99061668013558</v>
       </c>
       <c r="BL4">
-        <v>117.2801271097471</v>
+        <v>73.49098196937312</v>
       </c>
       <c r="BM4">
-        <v>61.28055626815686</v>
+        <v>0.3715352310737641</v>
       </c>
       <c r="BN4">
-        <v>138.499633805069</v>
+        <v>18.88579240805225</v>
       </c>
       <c r="BO4">
-        <v>419.2876384218297</v>
+        <v>5.621996117059571</v>
       </c>
       <c r="BP4">
-        <v>159.4870204073211</v>
+        <v>12.38261030578411</v>
       </c>
       <c r="BQ4">
-        <v>0.3485836940773666</v>
+        <v>9.709545629193416</v>
       </c>
       <c r="BR4">
-        <v>57.32155303578016</v>
+        <v>13.2944252519471</v>
       </c>
       <c r="BS4">
-        <v>0.3642456864048452</v>
+        <v>7.551067580170604</v>
       </c>
       <c r="BT4">
-        <v>0.3405643183871297</v>
+        <v>57.20515572610472</v>
       </c>
       <c r="BU4">
-        <v>47.195638307574</v>
+        <v>11.07279976084173</v>
       </c>
       <c r="BV4">
-        <v>65.33140385466048</v>
+        <v>7.189689929547411</v>
       </c>
       <c r="BW4">
-        <v>62.91616560400892</v>
+        <v>7.993944245820017</v>
       </c>
       <c r="BX4">
-        <v>524.3173716435962</v>
+        <v>29.36452449324883</v>
       </c>
       <c r="BY4">
-        <v>96.31304438411766</v>
+        <v>5.448623947986636</v>
       </c>
       <c r="BZ4">
-        <v>1900.606133285315</v>
+        <v>69.42784688059567</v>
       </c>
       <c r="CA4">
-        <v>0.3435467923866695</v>
+        <v>9.653453203735433</v>
       </c>
       <c r="CB4">
-        <v>1679.267256290589</v>
+        <v>8.762784090437012</v>
       </c>
       <c r="CC4">
-        <v>50.32791265519035</v>
+        <v>11.36561956849637</v>
       </c>
       <c r="CD4">
-        <v>58.08607335024873</v>
+        <v>6.846201533505039</v>
       </c>
       <c r="CE4">
-        <v>346.3308750225564</v>
+        <v>12.42819022769416</v>
       </c>
       <c r="CF4">
-        <v>57.27529013388966</v>
+        <v>2.489362309934831</v>
       </c>
       <c r="CG4">
-        <v>23.33061791740153</v>
+        <v>33.08616076849352</v>
       </c>
       <c r="CH4">
-        <v>154.4436402707984</v>
+        <v>44.95424962284942</v>
       </c>
       <c r="CI4">
-        <v>161.3198201681712</v>
+        <v>0.3968064681774175</v>
       </c>
       <c r="CJ4">
-        <v>140.2856303531271</v>
+        <v>25.2239794953568</v>
       </c>
       <c r="CK4">
-        <v>49.2678936302631</v>
+        <v>0.3339735581048293</v>
       </c>
       <c r="CL4">
-        <v>47.30135044942946</v>
+        <v>0.3361580014540857</v>
       </c>
       <c r="CM4">
-        <v>28.32887955292277</v>
+        <v>14.38724465875991</v>
       </c>
       <c r="CN4">
-        <v>0.4498081339740451</v>
+        <v>7.707962858939187</v>
       </c>
       <c r="CO4">
-        <v>51.77135724966761</v>
+        <v>30.00644443411899</v>
       </c>
       <c r="CP4">
-        <v>60.33237353588603</v>
+        <v>17.23540972396894</v>
       </c>
       <c r="CQ4">
-        <v>182.2966823802112</v>
+        <v>5.750905365035957</v>
       </c>
       <c r="CR4">
-        <v>22.64276765471358</v>
+        <v>7.414093713042929</v>
       </c>
       <c r="CS4">
-        <v>58.29666997542167</v>
+        <v>10.36511247718263</v>
       </c>
       <c r="CT4">
-        <v>267.281468185409</v>
+        <v>0.3497244228687504</v>
       </c>
       <c r="CU4">
-        <v>128.5374992508156</v>
+        <v>12.29467285673883</v>
       </c>
       <c r="CV4">
-        <v>0.3499207931875478</v>
+        <v>0.3453395920913438</v>
       </c>
       <c r="CW4">
-        <v>105.3504532468905</v>
+        <v>8.942724245272018</v>
       </c>
       <c r="CX4">
-        <v>37.18806994400522</v>
+        <v>0.3343717686734444</v>
       </c>
       <c r="CY4">
-        <v>27.8962947932316</v>
+        <v>50.3901548067867</v>
       </c>
       <c r="CZ4">
-        <v>106.2622575127624</v>
+        <v>21.44971223248447</v>
       </c>
       <c r="DA4">
-        <v>78.7349009209038</v>
+        <v>0.3469673095112594</v>
       </c>
       <c r="DB4">
-        <v>307.3821559706315</v>
+        <v>23.84220331423484</v>
       </c>
       <c r="DC4">
-        <v>16.0805937942177</v>
+        <v>68.90720025222529</v>
       </c>
       <c r="DD4">
-        <v>92.07978472527279</v>
+        <v>15.45610331240091</v>
       </c>
       <c r="DE4">
-        <v>86.30242609937079</v>
+        <v>23.75811569636117</v>
       </c>
       <c r="DF4">
-        <v>236.8763294171751</v>
+        <v>1.090850812366141</v>
       </c>
       <c r="DG4">
-        <v>275.4849474428698</v>
+        <v>4.983103891615899</v>
       </c>
       <c r="DH4">
-        <v>182.7906401586899</v>
+        <v>58.91926555730257</v>
       </c>
       <c r="DI4">
-        <v>104.4199130218146</v>
+        <v>7.269488248921586</v>
       </c>
       <c r="DJ4">
-        <v>0.360889107656971</v>
+        <v>8.983995141736671</v>
       </c>
       <c r="DK4">
-        <v>112.3060605426098</v>
+        <v>3.209903076148606</v>
       </c>
       <c r="DL4">
-        <v>367.247862686847</v>
+        <v>9.87352753626304</v>
       </c>
       <c r="DM4">
-        <v>204.6153117299784</v>
+        <v>0.3462568239927181</v>
       </c>
       <c r="DN4">
-        <v>0.34449592141851</v>
+        <v>0.349912929549572</v>
       </c>
       <c r="DO4">
-        <v>253.0624978467875</v>
+        <v>5.915542617262203</v>
       </c>
       <c r="DP4">
-        <v>127.1839482578788</v>
+        <v>0.4111143582608103</v>
       </c>
       <c r="DQ4">
-        <v>501.8106189207994</v>
+        <v>17.85081940694901</v>
       </c>
       <c r="DR4">
-        <v>178.1932589172017</v>
+        <v>6.142991007625294</v>
       </c>
       <c r="DS4">
-        <v>201.2633205701928</v>
+        <v>9.61169989643777</v>
       </c>
       <c r="DT4">
-        <v>95.67771375730983</v>
+        <v>22.70720282576509</v>
       </c>
       <c r="DU4">
-        <v>40.33016430463726</v>
+        <v>0.3338529283233724</v>
       </c>
       <c r="DV4">
-        <v>64.20432832188325</v>
+        <v>0.3621437418436679</v>
       </c>
       <c r="DW4">
-        <v>348.3630106313653</v>
+        <v>52.80357712969055</v>
       </c>
       <c r="DX4">
-        <v>80.28327653627036</v>
+        <v>2.547956206162574</v>
       </c>
       <c r="DY4">
-        <v>9.446319829086937</v>
+        <v>0.3350584541190256</v>
       </c>
       <c r="DZ4">
-        <v>129.1501946945001</v>
+        <v>0.3440603781170362</v>
       </c>
       <c r="EA4">
-        <v>170.3348213297469</v>
+        <v>12.83040912798247</v>
       </c>
       <c r="EB4">
-        <v>18.05083925525414</v>
+        <v>7.863596334778257</v>
       </c>
       <c r="EC4">
-        <v>175.5918201371634</v>
+        <v>151.7877848525647</v>
       </c>
       <c r="ED4">
-        <v>162.5090826190077</v>
+        <v>6.230774693861585</v>
       </c>
       <c r="EE4">
-        <v>80.28950948272961</v>
+        <v>7.564974134555265</v>
       </c>
       <c r="EF4">
-        <v>73.29917690544789</v>
+        <v>0.3444393233337193</v>
       </c>
       <c r="EG4">
-        <v>111.6702223829708</v>
+        <v>155.9150878415413</v>
       </c>
       <c r="EH4">
-        <v>102.3344750134967</v>
+        <v>6.888134238157277</v>
       </c>
       <c r="EI4">
-        <v>261.3043249100428</v>
+        <v>5.685938323490938</v>
       </c>
       <c r="EJ4">
-        <v>0.3340234952969018</v>
+        <v>8.014129341817965</v>
       </c>
       <c r="EK4">
-        <v>65.95059885774403</v>
+        <v>14.14100914380872</v>
       </c>
       <c r="EL4">
-        <v>0.3413536347140551</v>
+        <v>12.52201504136717</v>
       </c>
       <c r="EM4">
-        <v>0.3334096510461071</v>
+        <v>3.568909117006357</v>
       </c>
       <c r="EN4">
-        <v>0.3456941659474234</v>
+        <v>35.92881960949226</v>
       </c>
       <c r="EO4">
-        <v>0.3333376931250982</v>
+        <v>29.74689999495841</v>
       </c>
       <c r="EP4">
-        <v>36.32552428141861</v>
+        <v>9.645266336933748</v>
       </c>
       <c r="EQ4">
-        <v>101.3129273449478</v>
+        <v>18.54042723093056</v>
       </c>
       <c r="ER4">
-        <v>79.20405748109921</v>
+        <v>4.952586760416794</v>
       </c>
       <c r="ES4">
-        <v>319.149474787016</v>
+        <v>17.75739162976063</v>
       </c>
       <c r="ET4">
-        <v>88.05335156018052</v>
+        <v>4.315557820051055</v>
       </c>
       <c r="EU4">
-        <v>91.27741653910218</v>
+        <v>11.3905891164327</v>
       </c>
       <c r="EV4">
-        <v>0.3364950362353276</v>
+        <v>3.018347627960884</v>
       </c>
       <c r="EW4">
-        <v>1353.695051703639</v>
+        <v>40.26186478961861</v>
       </c>
       <c r="EX4">
-        <v>589.070669413878</v>
+        <v>7.443684864444385</v>
       </c>
       <c r="EY4">
-        <v>33.0217595748347</v>
+        <v>9.210900876734668</v>
       </c>
       <c r="EZ4">
-        <v>188.4733873349089</v>
+        <v>0.4064872140692866</v>
       </c>
       <c r="FA4">
-        <v>21.81734057035474</v>
+        <v>0.3449052051564738</v>
       </c>
       <c r="FB4">
-        <v>554.2224016788899</v>
+        <v>0.3370208099246854</v>
       </c>
       <c r="FC4">
-        <v>225.2402328324452</v>
+        <v>11.87064626435765</v>
       </c>
       <c r="FD4">
-        <v>27.3103252183931</v>
+        <v>13.20575509276676</v>
       </c>
       <c r="FE4">
-        <v>146.6270748064825</v>
+        <v>3.786177176475552</v>
       </c>
       <c r="FF4">
-        <v>145.6841789024957</v>
+        <v>5.428278236965649</v>
       </c>
       <c r="FG4">
-        <v>115.6767278007331</v>
+        <v>0.3360649558479318</v>
       </c>
       <c r="FH4">
-        <v>277.1387171878235</v>
+        <v>0.3360928999536613</v>
       </c>
       <c r="FI4">
-        <v>1707.580940053141</v>
+        <v>0.3602281559441671</v>
       </c>
       <c r="FJ4">
-        <v>153.2765968747386</v>
+        <v>0.360478982222187</v>
       </c>
       <c r="FK4">
-        <v>145.4960389729562</v>
+        <v>11.90245110512513</v>
       </c>
       <c r="FL4">
-        <v>31.33274953722504</v>
+        <v>5.547494047930052</v>
       </c>
       <c r="FM4">
-        <v>325.2436382626823</v>
+        <v>7.450741263349341</v>
       </c>
       <c r="FN4">
-        <v>34.31504394097804</v>
+        <v>3.646096048950911</v>
       </c>
       <c r="FO4">
-        <v>144.093509356944</v>
+        <v>2.545034815847115</v>
       </c>
       <c r="FP4">
-        <v>122.2907495151808</v>
+        <v>28.67158518380984</v>
       </c>
       <c r="FQ4">
-        <v>0.3338512054990578</v>
+        <v>0.3409597650064584</v>
       </c>
       <c r="FR4">
-        <v>104.237957654114</v>
+        <v>15.46093508262382</v>
       </c>
       <c r="FS4">
-        <v>29.27731806431366</v>
+        <v>6.802638627786435</v>
       </c>
       <c r="FT4">
-        <v>111.1072043677475</v>
+        <v>0.3638169496310487</v>
       </c>
       <c r="FU4">
-        <v>204.388070779474</v>
+        <v>0.3852836855308242</v>
       </c>
       <c r="FV4">
-        <v>90.32147240116957</v>
+        <v>3.242518197406652</v>
       </c>
       <c r="FW4">
-        <v>104.3723696270098</v>
+        <v>40.43811571471254</v>
       </c>
       <c r="FX4">
-        <v>30.47138503991536</v>
+        <v>0.3522085119933506</v>
       </c>
       <c r="FY4">
-        <v>0.3906300366670614</v>
+        <v>0.3551645976471739</v>
       </c>
       <c r="FZ4">
-        <v>323.8047386604812</v>
+        <v>76.59700772946705</v>
       </c>
       <c r="GA4">
-        <v>162.6833620933027</v>
+        <v>24.0413858976273</v>
       </c>
       <c r="GB4">
-        <v>45.29292830801004</v>
+        <v>0.3707907485144004</v>
       </c>
       <c r="GC4">
-        <v>2.419992653038917</v>
+        <v>0.3338823455545462</v>
       </c>
       <c r="GD4">
-        <v>94.92448859076919</v>
+        <v>6.829779181000906</v>
       </c>
       <c r="GE4">
-        <v>1.360208301338413</v>
+        <v>18.33294605694963</v>
       </c>
       <c r="GF4">
-        <v>29.29858386556038</v>
+        <v>17.38185967035736</v>
       </c>
       <c r="GG4">
-        <v>89.54303128265208</v>
+        <v>10.89178558944382</v>
       </c>
       <c r="GH4">
-        <v>68.26281877501407</v>
+        <v>3.005390472639442</v>
       </c>
       <c r="GI4">
-        <v>174.3017531531287</v>
+        <v>3.651195163199054</v>
       </c>
       <c r="GJ4">
-        <v>220.3311156440662</v>
+        <v>0.3465752818264578</v>
       </c>
       <c r="GK4">
-        <v>27.20462104583377</v>
+        <v>28.63087197592595</v>
       </c>
       <c r="GL4">
-        <v>181.0851047850683</v>
+        <v>0.3463605685730158</v>
       </c>
       <c r="GM4">
-        <v>0.333452209135874</v>
+        <v>62.00901626032697</v>
       </c>
       <c r="GN4">
-        <v>482.6635263697492</v>
+        <v>0.3745634488982482</v>
       </c>
       <c r="GO4">
-        <v>157.7342635282083</v>
+        <v>0.3338128063632612</v>
       </c>
       <c r="GP4">
-        <v>290.2845154528193</v>
+        <v>1.512923842811393</v>
       </c>
       <c r="GQ4">
-        <v>38.2853416339092</v>
+        <v>29.74423163808815</v>
       </c>
       <c r="GR4">
-        <v>210.0901248092391</v>
+        <v>30.79849056070854</v>
       </c>
       <c r="GS4">
-        <v>69.72403560032822</v>
+        <v>0.458259447388453</v>
+      </c>
+      <c r="GT4">
+        <v>5.274912464367907</v>
+      </c>
+      <c r="GU4">
+        <v>23.05240233081102</v>
+      </c>
+      <c r="GV4">
+        <v>0.3382233826860101</v>
+      </c>
+      <c r="GW4">
+        <v>10.52879532571266</v>
+      </c>
+      <c r="GX4">
+        <v>25.56306868220797</v>
+      </c>
+      <c r="GY4">
+        <v>0.3432140778581148</v>
+      </c>
+      <c r="GZ4">
+        <v>41.48496340622829</v>
+      </c>
+      <c r="HA4">
+        <v>23.73844146842855</v>
+      </c>
+      <c r="HB4">
+        <v>56.85398527008015</v>
+      </c>
+      <c r="HC4">
+        <v>14.97189274527991</v>
+      </c>
+      <c r="HD4">
+        <v>18.49299415382059</v>
+      </c>
+      <c r="HE4">
+        <v>5.133891225065673</v>
+      </c>
+      <c r="HF4">
+        <v>0.3436281617220338</v>
+      </c>
+      <c r="HG4">
+        <v>3.433383326560564</v>
+      </c>
+      <c r="HH4">
+        <v>2.62013909804496</v>
+      </c>
+      <c r="HI4">
+        <v>0.3351661445479034</v>
+      </c>
+      <c r="HJ4">
+        <v>22.85660460191471</v>
+      </c>
+      <c r="HK4">
+        <v>57.11742494120894</v>
+      </c>
+      <c r="HL4">
+        <v>5.856250226892961</v>
+      </c>
+      <c r="HM4">
+        <v>55.57681798021777</v>
+      </c>
+      <c r="HN4">
+        <v>0.3500356979345367</v>
+      </c>
+      <c r="HO4">
+        <v>0.5243653380067551</v>
+      </c>
+      <c r="HP4">
+        <v>72.46357749632203</v>
+      </c>
+      <c r="HQ4">
+        <v>23.51844416134545</v>
+      </c>
+      <c r="HR4">
+        <v>8.86017944164437</v>
+      </c>
+      <c r="HS4">
+        <v>7.939254208985436</v>
+      </c>
+      <c r="HT4">
+        <v>8.523117068450434</v>
+      </c>
+      <c r="HU4">
+        <v>26.86530837895554</v>
+      </c>
+      <c r="HV4">
+        <v>2.617641968293154</v>
+      </c>
+      <c r="HW4">
+        <v>0.3409599977702058</v>
+      </c>
+      <c r="HX4">
+        <v>12.37554537726722</v>
+      </c>
+      <c r="HY4">
+        <v>70.52901278621037</v>
+      </c>
+      <c r="HZ4">
+        <v>13.78046686359625</v>
+      </c>
+      <c r="IA4">
+        <v>0.3439269764627022</v>
+      </c>
+      <c r="IB4">
+        <v>0.3431746503743888</v>
+      </c>
+      <c r="IC4">
+        <v>10.81963136426083</v>
+      </c>
+      <c r="ID4">
+        <v>0.6844047326344643</v>
+      </c>
+      <c r="IE4">
+        <v>0.9105119667891672</v>
+      </c>
+      <c r="IF4">
+        <v>15.17464405810227</v>
+      </c>
+      <c r="IG4">
+        <v>4.138001482779739</v>
+      </c>
+      <c r="IH4">
+        <v>13.30114095889439</v>
+      </c>
+      <c r="II4">
+        <v>35.48735654492001</v>
+      </c>
+      <c r="IJ4">
+        <v>0.350680492138042</v>
+      </c>
+      <c r="IK4">
+        <v>7.482741356954873</v>
+      </c>
+      <c r="IL4">
+        <v>39.33414598695847</v>
+      </c>
+      <c r="IM4">
+        <v>0.3339848502773737</v>
+      </c>
+      <c r="IN4">
+        <v>0.3384015702304982</v>
+      </c>
+      <c r="IO4">
+        <v>4.194643098467854</v>
+      </c>
+      <c r="IP4">
+        <v>34.64386585725392</v>
+      </c>
+      <c r="IQ4">
+        <v>14.94573672081603</v>
+      </c>
+      <c r="IR4">
+        <v>7.098260392914178</v>
+      </c>
+      <c r="IS4">
+        <v>4.139290013117153</v>
+      </c>
+      <c r="IT4">
+        <v>12.81738859296913</v>
+      </c>
+      <c r="IU4">
+        <v>0.3379916863757603</v>
+      </c>
+      <c r="IV4">
+        <v>9.250377695452226</v>
+      </c>
+      <c r="IW4">
+        <v>19.01847012768495</v>
+      </c>
+      <c r="IX4">
+        <v>3.762629875958835</v>
+      </c>
+      <c r="IY4">
+        <v>3.561436636017335</v>
+      </c>
+      <c r="IZ4">
+        <v>2.520879209499141</v>
+      </c>
+      <c r="JA4">
+        <v>2.896600989797724</v>
+      </c>
+      <c r="JB4">
+        <v>31.57578411087832</v>
+      </c>
+      <c r="JC4">
+        <v>12.84244662241364</v>
+      </c>
+      <c r="JD4">
+        <v>37.48674876811877</v>
+      </c>
+      <c r="JE4">
+        <v>3.430323094339611</v>
+      </c>
+      <c r="JF4">
+        <v>0.3395151563465866</v>
+      </c>
+      <c r="JG4">
+        <v>26.44774029050171</v>
+      </c>
+      <c r="JH4">
+        <v>0.3368281021803746</v>
+      </c>
+      <c r="JI4">
+        <v>0.3339737711287257</v>
+      </c>
+      <c r="JJ4">
+        <v>0.4091088455886991</v>
+      </c>
+      <c r="JK4">
+        <v>0.3533658415884408</v>
+      </c>
+      <c r="JL4">
+        <v>15.99557451030011</v>
+      </c>
+      <c r="JM4">
+        <v>8.364649655878271</v>
+      </c>
+      <c r="JN4">
+        <v>35.85891930451393</v>
+      </c>
+      <c r="JO4">
+        <v>4.333161201596455</v>
+      </c>
+      <c r="JP4">
+        <v>49.32809917588687</v>
+      </c>
+      <c r="JQ4">
+        <v>7.418798140890282</v>
+      </c>
+      <c r="JR4">
+        <v>12.75347069495055</v>
+      </c>
+      <c r="JS4">
+        <v>40.58428501724148</v>
+      </c>
+      <c r="JT4">
+        <v>9.145321458874792</v>
+      </c>
+      <c r="JU4">
+        <v>17.37407525600363</v>
+      </c>
+      <c r="JV4">
+        <v>0.3366537744474233</v>
+      </c>
+      <c r="JW4">
+        <v>3.216553468548007</v>
+      </c>
+      <c r="JX4">
+        <v>7.609665749906975</v>
+      </c>
+      <c r="JY4">
+        <v>4.013972902734104</v>
+      </c>
+      <c r="JZ4">
+        <v>0.3446393893952831</v>
+      </c>
+      <c r="KA4">
+        <v>0.351059698337196</v>
+      </c>
+      <c r="KB4">
+        <v>0.334684413164617</v>
+      </c>
+      <c r="KC4">
+        <v>0.3917047388162211</v>
+      </c>
+      <c r="KD4">
+        <v>0.3413905508094828</v>
+      </c>
+      <c r="KE4">
+        <v>0.3639275615140234</v>
+      </c>
+      <c r="KF4">
+        <v>0.3422917677059163</v>
+      </c>
+      <c r="KG4">
+        <v>0.3398830614668587</v>
+      </c>
+      <c r="KH4">
+        <v>49.99285206299518</v>
+      </c>
+      <c r="KI4">
+        <v>0.336979600504687</v>
+      </c>
+      <c r="KJ4">
+        <v>8.456591276110631</v>
+      </c>
+      <c r="KK4">
+        <v>76.55938622484528</v>
+      </c>
+      <c r="KL4">
+        <v>49.33196930804132</v>
+      </c>
+      <c r="KM4">
+        <v>3.747965908349249</v>
+      </c>
+      <c r="KN4">
+        <v>0.3462528331120142</v>
+      </c>
+      <c r="KO4">
+        <v>0.3342662684616224</v>
+      </c>
+      <c r="KP4">
+        <v>0.3340292156194267</v>
+      </c>
+      <c r="KQ4">
+        <v>85.53332820496253</v>
+      </c>
+      <c r="KR4">
+        <v>2.798072637952455</v>
+      </c>
+      <c r="KS4">
+        <v>14.52359519306645</v>
+      </c>
+      <c r="KT4">
+        <v>13.55331084864119</v>
+      </c>
+      <c r="KU4">
+        <v>8.558358303563459</v>
+      </c>
+      <c r="KV4">
+        <v>14.1074922726434</v>
+      </c>
+      <c r="KW4">
+        <v>6.927034945064112</v>
+      </c>
+      <c r="KX4">
+        <v>15.08236984484943</v>
+      </c>
+      <c r="KY4">
+        <v>222.9049216715981</v>
+      </c>
+      <c r="KZ4">
+        <v>25.06950058745619</v>
+      </c>
+      <c r="LA4">
+        <v>8.453638476359588</v>
+      </c>
+      <c r="LB4">
+        <v>6.035511640861463</v>
+      </c>
+      <c r="LC4">
+        <v>37.89135054383655</v>
+      </c>
+      <c r="LD4">
+        <v>9.832202835297473</v>
+      </c>
+      <c r="LE4">
+        <v>14.67451145104038</v>
+      </c>
+      <c r="LF4">
+        <v>26.86396597511088</v>
+      </c>
+      <c r="LG4">
+        <v>5.456367596374451</v>
+      </c>
+      <c r="LH4">
+        <v>9.943619568629803</v>
+      </c>
+      <c r="LI4">
+        <v>5.402066958337235</v>
+      </c>
+      <c r="LJ4">
+        <v>4.455498064068991</v>
+      </c>
+      <c r="LK4">
+        <v>0.3512371850970052</v>
+      </c>
+      <c r="LL4">
+        <v>50.61577284448972</v>
+      </c>
+      <c r="LM4">
+        <v>6.701350409555634</v>
+      </c>
+      <c r="LN4">
+        <v>0.4568191214671995</v>
+      </c>
+      <c r="LO4">
+        <v>4.346520992313092</v>
+      </c>
+      <c r="LP4">
+        <v>0.3658032777182144</v>
+      </c>
+      <c r="LQ4">
+        <v>3.267831471811394</v>
+      </c>
+      <c r="LR4">
+        <v>6.97507286560321</v>
+      </c>
+      <c r="LS4">
+        <v>24.35637147205005</v>
+      </c>
+      <c r="LT4">
+        <v>0.3343166294293847</v>
+      </c>
+      <c r="LU4">
+        <v>20.60280269580251</v>
+      </c>
+      <c r="LV4">
+        <v>1.481733873126291</v>
+      </c>
+      <c r="LW4">
+        <v>21.60061823279913</v>
+      </c>
+      <c r="LX4">
+        <v>0.3402659993266144</v>
+      </c>
+      <c r="LY4">
+        <v>0.3350104302542122</v>
+      </c>
+      <c r="LZ4">
+        <v>0.3411977403319942</v>
+      </c>
+      <c r="MA4">
+        <v>0.8240041492208665</v>
+      </c>
+      <c r="MB4">
+        <v>0.3371791504422548</v>
+      </c>
+      <c r="MC4">
+        <v>33.42978969344079</v>
+      </c>
+      <c r="MD4">
+        <v>20.54807561477704</v>
+      </c>
+      <c r="ME4">
+        <v>33.44506025219285</v>
+      </c>
+      <c r="MF4">
+        <v>20.80914172209757</v>
+      </c>
+      <c r="MG4">
+        <v>10.40635920914946</v>
+      </c>
+      <c r="MH4">
+        <v>14.73999759381004</v>
+      </c>
+      <c r="MI4">
+        <v>7.589652343945589</v>
+      </c>
+      <c r="MJ4">
+        <v>11.00033061278356</v>
+      </c>
+      <c r="MK4">
+        <v>21.82070136313051</v>
+      </c>
+      <c r="ML4">
+        <v>44.18500166320445</v>
+      </c>
+      <c r="MM4">
+        <v>10.09184461019509</v>
+      </c>
+      <c r="MN4">
+        <v>11.30273921380177</v>
+      </c>
+      <c r="MO4">
+        <v>42.45087229803676</v>
+      </c>
+      <c r="MP4">
+        <v>3.069849904650054</v>
+      </c>
+      <c r="MQ4">
+        <v>11.03157202619336</v>
+      </c>
+      <c r="MR4">
+        <v>8.951818764214893</v>
+      </c>
+      <c r="MS4">
+        <v>7.358333845333799</v>
+      </c>
+      <c r="MT4">
+        <v>5.654072176086144</v>
+      </c>
+      <c r="MU4">
+        <v>10.94640385960642</v>
+      </c>
+      <c r="MV4">
+        <v>8.581750579264064</v>
+      </c>
+      <c r="MW4">
+        <v>5.789251218757847</v>
+      </c>
+      <c r="MX4">
+        <v>3.951669228261234</v>
+      </c>
+      <c r="MY4">
+        <v>6.200883382057711</v>
+      </c>
+      <c r="MZ4">
+        <v>26.2078472511847</v>
+      </c>
+      <c r="NA4">
+        <v>10.97572177357582</v>
+      </c>
+      <c r="NB4">
+        <v>0.4430247982644688</v>
+      </c>
+      <c r="NC4">
+        <v>32.43729493633947</v>
+      </c>
+      <c r="ND4">
+        <v>2.219328070050374</v>
+      </c>
+      <c r="NE4">
+        <v>5.143650290711846</v>
+      </c>
+      <c r="NF4">
+        <v>0.3878328726662393</v>
+      </c>
+      <c r="NG4">
+        <v>3.551490921821974</v>
+      </c>
+      <c r="NH4">
+        <v>16.70564194332941</v>
+      </c>
+      <c r="NI4">
+        <v>6.742781187592544</v>
+      </c>
+      <c r="NJ4">
+        <v>5.829398054232431</v>
+      </c>
+      <c r="NK4">
+        <v>0.3513828012872252</v>
+      </c>
+      <c r="NL4">
+        <v>7.924178111944064</v>
+      </c>
+      <c r="NM4">
+        <v>25.19744100166703</v>
+      </c>
+      <c r="NN4">
+        <v>0.3436334694382439</v>
+      </c>
+      <c r="NO4">
+        <v>13.67465069495804</v>
+      </c>
+      <c r="NP4">
+        <v>31.35555622130861</v>
+      </c>
+      <c r="NQ4">
+        <v>3.809827998132303</v>
+      </c>
+      <c r="NR4">
+        <v>0.7583190094248823</v>
+      </c>
+      <c r="NS4">
+        <v>0.3409121057657048</v>
+      </c>
+      <c r="NT4">
+        <v>0.3341485207160508</v>
+      </c>
+      <c r="NU4">
+        <v>73.57799527371552</v>
+      </c>
+      <c r="NV4">
+        <v>0.34715616636179</v>
+      </c>
+      <c r="NW4">
+        <v>0.3379818982844172</v>
+      </c>
+      <c r="NX4">
+        <v>6.65521693679615</v>
+      </c>
+      <c r="NY4">
+        <v>22.83435424269107</v>
+      </c>
+      <c r="NZ4">
+        <v>4.5023283334585</v>
+      </c>
+      <c r="OA4">
+        <v>15.21506394507946</v>
+      </c>
+      <c r="OB4">
+        <v>0.3343929235207216</v>
+      </c>
+      <c r="OC4">
+        <v>81.87889246785257</v>
+      </c>
+      <c r="OD4">
+        <v>37.36688397659061</v>
+      </c>
+      <c r="OE4">
+        <v>39.15339934660706</v>
+      </c>
+      <c r="OF4">
+        <v>0.3339263899814197</v>
+      </c>
+      <c r="OG4">
+        <v>0.3343998116216443</v>
+      </c>
+      <c r="OH4">
+        <v>8.591113997295837</v>
+      </c>
+      <c r="OI4">
+        <v>7.098292175709644</v>
+      </c>
+      <c r="OJ4">
+        <v>53.25583600008268</v>
+      </c>
+      <c r="OK4">
+        <v>8.50820426841689</v>
       </c>
     </row>
   </sheetData>
